--- a/data/results/exp_1.xlsx
+++ b/data/results/exp_1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1932" uniqueCount="1233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1932" uniqueCount="1232">
   <si>
     <t>question</t>
   </si>
@@ -5699,892 +5699,1962 @@
     <t>not available</t>
   </si>
   <si>
-    <t>To transfer a Farmers call, you can provide the following number and transfer the insured to 800-FARMERS (800-327-6377) [4]. For claims issues, you can transfer them to Farmers Claims Department - 800-435-7764 [4].</t>
-  </si>
-  <si>
-    <t>Proof of incarceration can include a letter from the courts [1]. You can also google search county jail records [1].</t>
-  </si>
-  <si>
-    <t>To create a letter of experience loss history letter, you can follow the steps below:
-1. Search ForemostSTAR for claims associated with the policy
-2. Include the date of loss, type of loss, amount and status in the following formats: (Example) Date of 1st loss mm-dd-yyyy, Type/Amount of 1st loss Wind/$123.45, Status of 1st loss Closed
-3. Enter the claim date (xx/xx/xxxx)
-4. Enter Loss Type/Amount paid (Enter $0 if zero paid) [2]</t>
-  </si>
-  <si>
-    <t>To clear the error First Driver Must be NI, you can input 1 on the Policy Level Rating Screen, R on Hold Rate Indicator, Enter and then F12 [1, 2]. You can also input 9 for Comment and then F6 for New Comment: Reason is PC Comment: Working all errors, cleared FIRST DRIVER MUST BE NI, released renewal, ratebook [1, 2].</t>
-  </si>
-  <si>
-    <t>To process a cancellation from an incoming communication, you must make sure that all information listed within the Cancellation procedure has been provided [1]. You also need to make sure that the name on the request matches the named insured on the policy [1].</t>
-  </si>
-  <si>
-    <t>Before closing the call, ask from the suggested options: â€œDid I effectively answer your question(s) today?â€•â€œHave I resolved your issue?â€• If yes, thank the caller/chatter and ask if caller/chatter would like a reference number for their call [1]. If an answer is not successful, ask probing questions to uncover need and work to resolve until answer is successful [1].</t>
-  </si>
-  <si>
-    <t>The ARS document retention procedure outlines the necessary steps for sending documents to be processed, tracked, or for retention purposes only [1]. Agents/agencies that have received approval from Farmers to maintain policy related documentation at their sites must produce these documents in a timely manner if requested by Claims, Underwriting, Rating, Compliance, or other reasons [2].</t>
-  </si>
-  <si>
-    <t>If you have questions about the content found in our appetite resources, please call our Service Center at 1-877-411-4BIZ (4249) [4].</t>
-  </si>
-  <si>
-    <t>Yes, you can cancel a Foremost policy by chat without additional documentation for Property and Casualty Products within 30 days of the cancel request date [1, 2]. You can also verbally cancel a policy without additional documentation [2]. However, you must complete the Delaware Cancellation Affidavit (Form 8146) in place of a chat request [1].</t>
-  </si>
-  <si>
-    <t>To stop pay a refund check, you can use the Green Screens [4]. You will need the policy, office, journal code, account, check number, and journal credit information [1, 4]. You can also use BillingHub [3].</t>
-  </si>
-  <si>
-    <t>The process for policy retention includes: 1. Conducting regular policy reviews and competitor quote comparisons [1]. 2. Reviewing policy deductibles, payment plan, discounts, etc [1]. 3. Checking for recent activity on this policy and comparing to new quote/policy [1]. 4. Saving any changes made up to this point [2].</t>
-  </si>
-  <si>
-    <t>To set up automatic payments through the secure payment line for a customer, you can select "Monthly EFT" or "Monthly Credit Card" for customers who want to be on autopay using either payment method [1].</t>
-  </si>
-  <si>
-    <t>The following are the required documents for out of household drivers (OOH):
-- Current proof of residency (POR) documentation is required for all Out of Household (OOH) requests if the driver is no longer insured with a Farmers Insurance GroupÂ® carrier.
-- Current pay stub (not paycheck) showing the driverâ€™s name and address
-- Current Social Security disability check stub showing the driverâ€™s name and address
-- Current and valid state-issued ID (license, permit, or non-driving ID)
-- A driver&amp;#39;s license or state ID does not need to have a current issue date, but the license must clearly say that it is not expired.
-- A current and valid foreign ID or foreign driver&amp;#39;s license (that is not expired) also is acceptable [1].</t>
-  </si>
-  <si>
-    <t>To add a motorcycle model that is not listed as an option in the quote, you can contact Casualty Underwriting [1]. They will need the following information about the vehicle: Vehicle Type, Vehicle Year, Make/Manufacturer, Model Name, Cubic Centimeters (CCs), and Vehicle Identification Number (VIN) [1].</t>
-  </si>
-  <si>
-    <t>If the anti-theft discount does not automatically populate from VIN entry, the discount should be reviewed using the descriptions below to determine whether the anti-theft device is manual or automatic [1].</t>
-  </si>
-  <si>
-    <t>To add a vehicle in Policy Center, you can follow these steps:
-1. Select Vehicles from the sidebar
-2. Click Create Vehicle
-3. Enter the VIN for the vehicle and press enter
-4. If the vehicle is for the current year or future year, you will be asked if it is new and unused
-5. Select Yes or No
-6. Click Ask Underwriting Questions and fill out the required fields [2, 3, 4].</t>
-  </si>
-  <si>
-    <t>To get a translator, you can call 1-800-946-7990 and provide the PIN for the policy you are calling about [1, 2]. You can also type in "interpreter" and select from the phone book [1, 2].</t>
-  </si>
-  <si>
-    <t>To open the pay plan calculator, click here: Pay Plan Calculator [1]. After opening the file, click "Enable Content" on the yellow banner warning at the top of the sheet (if it appears) [1]. For a standard calculation, navigate to the "Data Input" section in the upper left corner [1]. Enter the policy effective date in the "Effective Date" cell [1]. Enter in the Premium (minus state tax) into the "Total Premium" cell [1]. Enter the new Full Term Premium amount [1]. The Premium Change will auto-generate in the "Premium Change" cell [1]. The updated pay plan billing amounts will auto-generate in the appropriate chart areas below the data entry fields [1]. When finished, clear all the data you entered to ensure the next transaction is not corrupted [1].</t>
-  </si>
-  <si>
-    <t>To clear an SP02 Error, you can follow these steps [1, 2, 3, 4, 5]: 1. Access AS400 Main Menu 2. Select Policy Processing 3. Enter policy information 4. Select Error Correction 5. Select Basic Contract 6. Keystroke first letter in the name, enter or control 7. Rate policy [4]. If the error does not clear, continue to the next step [4].</t>
-  </si>
-  <si>
-    <t>To pull the PIRC Report, you can follow these steps: 1. From AS400, select Management Reports 2. Select Ad hoc Reports 3. Type PIRCNX44 on the Query line 4. Type PLIBAR on the Library line 5. Place a 1 next to Select Records 6. In the Range field, update the end date to the current year [1].</t>
-  </si>
-  <si>
-    <t>To file a worker's compensation claim online, you can visit Farmers.com and select "Claims" &gt; "Business Claims" [1]. You can log in using your account credentials, or you can create a login to get started [1]. You can also find a link to the Virtual Claims Kit by navigating to Insurance &gt; Workers Compensation [2].</t>
-  </si>
-  <si>
-    <t>For Texas, the cancellation notice must include statutory grounds for cancellation and risk specific facts [1]. The non-renewal must include a specific reason for non-renewal [1]. The system generated reason for non-renewal is not adequate to satisfy state requirements [1].</t>
-  </si>
-  <si>
-    <t>To determine if a recent payment has been made to a policy, you can use the KI32 screen [1]. To view incoming payments, open the Foremost Mainframe and sign-in. Select CI02. Type KI32 [1]. From the home page of ForemostSTAR, click the Launch to FIS tab [1]. Click the Payments tab [1]. Click on the Payment Search tab [1]. Enter the 13-digit policy number and click Go [1]. The list of electronic payments from the last 24 months will appear (if any) with the most recent at the top of the list [1].</t>
-  </si>
-  <si>
-    <t>To change a vehicle, you need to click on Endorse Policy &gt; Vehicles [1]. You then need to determine and enter the Effective date of Change [1].</t>
-  </si>
-  <si>
-    <t>To verify a POA, you need to provide the following information [1]: Your Name (First and Last)Insuredâ€™s Name (First and Last)Policy NumberInsuredâ€™s Last Four of SSN Notes: The insuredâ€™s DOB (MM/DD/YR) may be used if the SSN is not available.The policy or billing address may be used if the policy number is not available [1].</t>
-  </si>
-  <si>
-    <t>To dispute an accident, you can contact underwriting to do a test quote to see if the change in accident details will affect your premium [1]. If not, you can contact the Department of Motor Vehicle to obtain the accident report [1]. For anything else, you can follow the process in the article: How to dispute an at fault accident? [2].</t>
-  </si>
-  <si>
-    <t>To replace a vehicle on a commercial policy, you can follow these steps: 1. Select Endorse Policy. 2. Enter Effective Date and click OK. 3. Select Vehicle/Coverage. 4. Click on vehicle to replace. 5. Click the Delete Vehicle button to remove the vehicle being replaced [4].</t>
-  </si>
-  <si>
-    <t>To file a claim online, you can visit Farmers.com and select Claims &gt; Business Claims [1]. You can also find a doctor near you and FAQs on the Workers’ Comp page [1].</t>
-  </si>
-  <si>
-    <t>To backdate a cancellation for a property or casualty policy more than 30 days, the following documents must be submitted: A valid cancellation request including: The insured's name, The policy number(s) to be cancelled, The requested effective date of cancellation, The signature of either the Primary Named Insured (PNI) or the Secondary Named Insured (SNI) [2].</t>
-  </si>
-  <si>
-    <t>To cancel a policy in AS400, you can contact Service Operations or use BWProducers.com [1, 2]. After confirming receipt of a signed cancellation request or qualified email, the policy cancellation can be processed [1]. To un-archive a policy in AS400, you can log in and input 44 next to "Master Company" [4]. Select Option 1 for Policy Processing and then Option 12 or 13 for Un-Archive Request [4]. Type in Policy Symbol, Number and MOD Loc: 00MCO:44 [4]. Type 1 next to the policy and F10 to confirm [4]. F12 back to Policy Processing Menu [4]. The policy should be available for viewing in 1-2 days [4].</t>
-  </si>
-  <si>
-    <t>Yes, you can stop pay and reissue/reapply a refund check that was generated today [1]. However, you will need to wait 24 hours before you can stop pay and reissue/reapply [1]. A Future Review should be set to have everything processed after the refund is posted [1].</t>
-  </si>
-  <si>
-    <t>Cancellation requests can be made in the following ways:
-- Return of policy documents by the first named insured or an officer with the officer's title, which includes a dated note requesting and/or stating the reason for the cancellation [1].
-- A 31-0212 cancellation form with the date and signature of the first named insured or an officer, with the officer's title [1].
-- A letter with the date and signature of the first named insured or an officer, with the officer's title [1].
-- An email from the first named insured or an officer, with the officer's title [1].
-- A Lost Policy Release (ACORD form) with the date and signature of the first named insured or an officer, with the officer's title [1].
-- A Total Loss Settlement form 23-0325 signed and dated by the first named insured or an officer, with the officer's title [1].</t>
-  </si>
-  <si>
-    <t>To process an agency sweep payment, you can log into BWProducers.com and select the "Make a Payment" tab [1]. You can also log into PSP and select "Billing/Payment" [1].</t>
-  </si>
-  <si>
-    <t>The process for a Named Insured's POA to request policy cancellation is as follows:
-1. The POA must have documentation showing they have been legally appointed as POA, EOE or Trustee in imaging or sent to imaging [1].
-2. The POA must include a written request to cancel the policy [1].</t>
-  </si>
-  <si>
-    <t>To process a stop payment on a disbursement check, you can fill out a Digital Billing Stationary Request [1]. The request should include the following information: - Customer policy number
+    <t>**To transfer a Farmers call:**
+- Provide the following number: 800-FARMERS (800-327-6377)
+- Transfer the insured to that number
+**For claims issues:**
+- Transfer the caller to the Farmers Claims Department at 800-435-7764</t>
+  </si>
+  <si>
+    <t>**Proof of incarceration can include:**
+- A letter from the courts.
+- A Google search of county jail records.</t>
+  </si>
+  <si>
+    <t>**How to create a letter of experience loss history letter:**
+1. Search ForemostSTAR for claims associated with the policy.
+2. Include the following information for each claim:
+    - Date of loss (mm-dd-yyyy)
+    - Type of loss
+    - Amount of loss
+    - Status of loss (e.g., Closed)
+3. Enter the claim date (xx/xx/xxxx).
+4. Enter the loss type and amount paid (enter $0 if zero paid).</t>
+  </si>
+  <si>
+    <t>To resolve the "First Driver Must be NI" error:
+1. On the Policy Level Rating Screen, input "1".
+2. Input "R" on the Hold Rate Indicator.
+3. Press "Enter" and then "F12".
+4. Alternatively, input "9" for Comment and press "F6" for New Comment.
+5. Enter the reason as "PC Comment: Working all errors, cleared FIRST DRIVER MUST BE NI, released renewal, ratebook".</t>
+  </si>
+  <si>
+    <t>To process a cancellation from an incoming communication:
+- Ensure all information listed in the Cancellation procedure is provided.
+- Verify that the name on the request matches the named insured on the policy.</t>
+  </si>
+  <si>
+    <t>Before ending the call:
+- Ask from the suggested options:
+ - "Did I effectively answer your question(s) today?"
+ - "Have I resolved your issue?"
+- If the answer is yes, thank the caller and ask if they would like a reference number for their call.
+- If the answer is no, ask probing questions to uncover the need and work to resolve the issue until the answer is successful.</t>
+  </si>
+  <si>
+    <t>**ARS Document Retention Procedure**
+- The ARS document retention procedure outlines the steps for sending documents to be processed, tracked, or retained.
+- Agents/agencies approved by Farmers to maintain policy-related documentation at their sites must produce these documents promptly if requested by Claims, Underwriting, Rating, Compliance, or for other reasons.</t>
+  </si>
+  <si>
+    <t>If you have questions about the content in our appetite resources, contact our Service Center at 1-877-411-4BIZ (4249).</t>
+  </si>
+  <si>
+    <t>Sure, here's the reformatted answer:
+**How to cancel a Foremost policy:**
+**Within 30 days of the cancel request date:**
+- You can cancel a Property and Casualty policy by chat without additional documentation.
+- You can also cancel a policy verbally without additional documentation.
+**After 30 days of the cancel request date:**
+- You must complete the Delaware Cancellation Affidavit (Form 8146) in place of a chat request.</t>
+  </si>
+  <si>
+    <t>**To stop payment on a refund check:**
+1. Use the Green Screens.
+ - You will need the following information:
+   - Policy
+   - Office
+   - Journal code
+   - Account
+   - Check number
+   - Journal credit information
+2. Use BillingHub.</t>
+  </si>
+  <si>
+    <t>**Policy Retention Process:**
+1. Conduct regular policy reviews and competitor quote comparisons.
+2. Review policy deductibles, payment plans, discounts, etc.
+3. Check for recent activity on the policy and compare it to a new quote/policy.
+4. Save any changes made.</t>
+  </si>
+  <si>
+    <t>To set up automatic payments through the secure payment line:
+- Select "Monthly EFT" for customers who want to be on autopay using EFT.
+- Select "Monthly Credit Card" for customers who want to be on autopay using a credit card.</t>
+  </si>
+  <si>
+    <t>**Required Documents for Out of Household Drivers (OOH)**
+**Proof of Residency (POR) Documentation**
+- Required for all OOH requests if the driver is no longer insured with Farmers Insurance Group.
+**Current Pay Stub**
+- Must show the driver's name and address.
+**Current Social Security Disability Check Stub**
+- Must show the driver's name and address.
+**Current and Valid State-Issued ID**
+- Can be a license, permit, or non-driving ID.
+- Does not need to have a current issue date, but must clearly state that it is not expired.
+**Foreign ID or Driver's License**
+- Must be current and valid (not expired).</t>
+  </si>
+  <si>
+    <t>To add a motorcycle model not listed as an option in the quote, contact Casualty Underwriting. They will need the following information about the vehicle:
+- Vehicle Type
+- Vehicle Year
+- Make/Manufacturer
+- Model Name
+- Cubic Centimeters (CCs)
+- Vehicle Identification Number (VIN)</t>
+  </si>
+  <si>
+    <t>**Anti-Theft Discount Review**
+If the anti-theft discount doesn't automatically populate after entering the VIN, review the discount using the descriptions below to determine whether the anti-theft device is manual or automatic.</t>
+  </si>
+  <si>
+    <t>To add a vehicle in Policy Center:
+- Select Vehicles from the sidebar.
+- Click Create Vehicle.
+- Enter the VIN for the vehicle and press enter.
+- If the vehicle is for the current year or future year, you will be asked if it is new and unused.
+- Select Yes or No.
+- Click Ask Underwriting Questions and fill out the required fields.</t>
+  </si>
+  <si>
+    <t>**To get a translator:**
+1. Call 1-800-946-7990.
+2. Provide the PIN for the policy you are calling about.
+3. Type in "interpreter" and select from the phone book.</t>
+  </si>
+  <si>
+    <t>**To open the pay plan calculator:**
+1. Click on this link: Pay Plan Calculator.
+2. If a yellow banner warning appears at the top of the sheet, click "Enable Content".
+**For a standard calculation:**
+1. Go to the "Data Input" section in the upper left corner.
+2. Enter the policy effective date in the "Effective Date" cell.
+3. Enter the Premium (minus state tax) into the "Total Premium" cell.
+4. Enter the new Full Term Premium amount.
+5. The Premium Change will automatically generate in the "Premium Change" cell.
+6. The updated pay plan billing amounts will automatically generate in the appropriate chart areas below the data entry fields.
+**When finished:**
+1. Clear all the data you entered to ensure the next transaction is not corrupted.</t>
+  </si>
+  <si>
+    <t>To clear an SP02 Error, follow these steps:
+1. Go to the AS400 Main Menu.
+2. Select Policy Processing.
+3. Enter the policy information.
+4. Select Error Correction.
+5. Select Basic Contract.
+6. Type the first letter of the name, then press Enter or Control.
+7. Rate the policy.
+If the error persists, proceed to the next step.</t>
+  </si>
+  <si>
+    <t>To pull the PIRC Report, follow these steps:
+1. From AS400, select Management Reports.
+2. Select Ad hoc Reports.
+3. Type PIRCNX44 on the Query line.
+4. Type PLIBAR on the Library line.
+5. Place a 1 next to Select Records.
+6. In the Range field, update the end date to the current year.</t>
+  </si>
+  <si>
+    <t>To file a worker's compensation claim online:
+1. Visit Farmers.com and select "Claims" &gt; "Business Claims."
+2. Log in using your account credentials or create a login to get started.
+3. Alternatively, navigate to Insurance &gt; Workers Compensation to find a link to the Virtual Claims Kit.</t>
+  </si>
+  <si>
+    <t>**Texas:**
+- Cancellation notice:
+  - Must include statutory grounds for cancellation.
+  - Must include risk-specific facts.
+- Non-renewal notice:
+  - Must include a specific reason for non-renewal.
+  - System-generated reasons are not adequate.</t>
+  </si>
+  <si>
+    <t>Sure, here's the formatted answer:
+**To determine if a recent payment has been made to a policy:**
+1. Open the Foremost Mainframe and sign in.
+2. Select CI02.
+3. Type KI32.
+4. From the home page of ForemostSTAR, click the "Launch to FIS" tab.
+5. Click the "Payments" tab.
+6. Click on the "Payment Search" tab.
+7. Enter the 13-digit policy number and click "Go."
+8. The list of electronic payments from the last 24 months will appear (if any), with the most recent at the top of the list.</t>
+  </si>
+  <si>
+    <t>**To change a vehicle:**
+1. Click on **Endorse Policy &gt; Vehicles**.
+2. Enter the **Effective date of Change**.</t>
+  </si>
+  <si>
+    <t>**To verify a POA, you need to provide the following information:**
+- Your Name (First and Last)
+- Insured's Name (First and Last)
+- Policy Number
+- Insured's Last Four of SSN
+**Notes:**
+- The insured's DOB (MM/DD/YR) may be used if the SSN is not available.
+- The policy or billing address may be used if the policy number is not available.</t>
+  </si>
+  <si>
+    <t>**How to Dispute an Accident**
+1. Contact underwriting to do a test quote to see if the change in accident details will affect your premium.
+2. If the test quote shows no change, contact the Department of Motor Vehicle to obtain the accident report.
+3. For any other disputes, follow the process outlined in the article "How to dispute an at fault accident?"</t>
+  </si>
+  <si>
+    <t>To replace a vehicle on a commercial policy:
+1. Select "Endorse Policy."
+2. Enter the "Effective Date" and click "OK."
+3. Select "Vehicle/Coverage."
+4. Click on the vehicle you want to replace.
+5. Click the "Delete Vehicle" button to remove the vehicle being replaced.</t>
+  </si>
+  <si>
+    <t>Sure, here's the reformatted answer:
+**To file a claim online:**
+1. Visit Farmers.com.
+2. Select "Claims" &gt; "Business Claims."
+**To find a doctor near you:**
+1. Visit the Workers' Comp page.
+2. Use the search tool to find a doctor in your area.
+**For FAQs:**
+1. Visit the Workers' Comp page.
+2. Scroll down to the "FAQs" section.</t>
+  </si>
+  <si>
+    <t>To backdate a cancellation for a property or casualty policy more than 30 days, submit the following documents:
+- A valid cancellation request including:
+  - The insured's name
+  - The policy number(s) to be canceled
+  - The requested effective date of cancellation
+  - The signature of either the Primary Named Insured (PNI) or the Secondary Named Insured (SNI)</t>
+  </si>
+  <si>
+    <t>**To cancel a policy in AS400:**
+1. Contact Service Operations or use BWProducers.com.
+2. Confirm receipt of a signed cancellation request or qualified email.
+3. The policy cancellation can then be processed.
+**To un-archive a policy in AS400:**
+1. Log in and input 44 next to "Master Company".
+2. Select Option 1 for Policy Processing, then Option 12 or 13 for Un-Archive Request.
+3. Type in Policy Symbol, Number, and MOD Loc: 00MCO:44.
+4. Type 1 next to the policy and F10 to confirm.
+5. F12 back to Policy Processing Menu.
+The policy should be available for viewing in 1-2 days.</t>
+  </si>
+  <si>
+    <t>Sure, here's the reformatted answer:
+**How to Stop Pay and Reissue a Refund Check:**
+- You can stop pay and reissue a refund check that was generated today.
+- However, you must wait 24 hours before you can do so.
+- A Future Review should be set to have everything processed after the refund is posted.</t>
+  </si>
+  <si>
+    <t>**Cancellation requests can be made in the following ways:**
+1. Return of policy documents by the first named insured or an officer with the officer's title, including a dated note requesting and/or stating the reason for the cancellation.
+2. A 31-0212 cancellation form with the date and signature of the first named insured or an officer, with the officer's title.
+3. A letter with the date and signature of the first named insured or an officer, with the officer's title.
+4. An email from the first named insured or an officer, with the officer's title.
+5. A Lost Policy Release (ACORD form) with the date and signature of the first named insured or an officer, with the officer's title.
+6. A Total Loss Settlement form 23-0325 signed and dated by the first named insured or an officer, with the officer's title.</t>
+  </si>
+  <si>
+    <t>To process an agency sweep payment, you can:
+1. Log into BWProducers.com and select the "Make a Payment" tab.
+2. Log into PSP and select "Billing/Payment".</t>
+  </si>
+  <si>
+    <t>**Steps for a Named Insured's POA to Request Policy Cancellation:**
+1. **Documentation:**
+   - The POA must provide proof of their legal appointment as POA, EOE, or Trustee. This documentation can be sent to imaging or provided as an image.
+2. **Written Request:**
+   - The POA must submit a written request to cancel the policy.</t>
+  </si>
+  <si>
+    <t>To process a stop payment on a disbursement check, you can fill out a Digital Billing Stationary Request. Include the following information:
+- Customer policy number
 - Customer name
 - Check number
-- Check amount [3]</t>
-  </si>
-  <si>
-    <t>To use the pay plan calculator for mid-term changes, open the Pay Plan Calculator [2]. In the upper left corner, enter the policy effective date, premium, and new full term premium amount [2]. The updated pay plan billing amounts will auto-generate [2]. When finished, clear all data [2].</t>
-  </si>
-  <si>
-    <t>To request a stop pay on a refund check, you can submit a cash form manually or through ForemostSTAR [1]. The 30-day rule only applies to checks issued with the correct information (including mailing address) [2].</t>
-  </si>
-  <si>
-    <t>The following agents are restricted from writing higher limits: California: 04036610461120047091404938490479074, Florida: 0991901094520409102710990068091024609107840942551094394509401900910400099134409907020991501, Pennsylvania: 371022637927373722409379344537229553722355 [1].</t>
-  </si>
-  <si>
-    <t>Yes, you can update the mailing address the same day the policy is cancelled [2]. However, you need to follow a 2-day change process [1, 2]. First, update the address on the customer page using the same date of the cancellation [4]. Then, email the Admin so that the Resource Team can follow up in 2 days to cancel the policy [2].</t>
-  </si>
-  <si>
-    <t>An underwriter may need to review a policy if a driver has a major MVR violation or more than 4 MVR points [2, 4]. The underwriter may also need to review the policy if the driver has a suspended or revoked license [5].</t>
-  </si>
-  <si>
-    <t>You should refer auto changes to a UW when: adding/changing an undescriptive trailer, adding a vehicle to a Towing or ASR risk, changing the liability limit on a tow truck or dump truck, increasing the liability limit to $2000000 on vehicles over 45000 GVW, adding a high-value private passenger vehicle (in excess of 100000), adding/changing heavy &amp; extra heavy vehicles (over 45000 GVW), adding Expanded Auto Classifications (ie: tow trucks, logging, sand gravel dirt, contract carriers etc.) [1].</t>
-  </si>
-  <si>
-    <t>To get an interpreter, you can call 1-800-946-7990 and enter the PIN #3018 [1, 2]. You can also type in "interpreter" and select from the phone book [1, 2]. If there are phone issues connecting to the interpreter line, you can call 800-434-2076 [1, 2].</t>
-  </si>
-  <si>
-    <t>The only Agent360-related states that require a written request to cancel are GA and LA [1].</t>
-  </si>
-  <si>
-    <t>There is no frontline advocate procedure for SR22 [1, 2].</t>
-  </si>
-  <si>
-    <t>All external requests should be channeled through the External Communications team to ensure consistency in communications and avoid providing inaccurate or sensitive information [1]. The team can then provide advice and guidance on whether or not the request should be progressed [1].</t>
-  </si>
-  <si>
-    <t>When the insured provides an inbound correspondence, you can process the cancellation request as long as all information listed within the Cancellation procedure has been provided [1]. Make sure the name on the request matches the named insured on the policy [1]. The effective date of cancellation can be the requested future date, the date after the postmark (for letters), or the day after the fax or email [1].</t>
-  </si>
-  <si>
-    <t>If a refund check is returned by the post office due to an undeliverable address, it will be delivered to the 21st Century Finance Department (DE) [1]. Finance will verify that the refund is still outstanding at the bank [1]. If the company has placed a stop pay on the check, the refund check is then shredded [1]. If the refund check is still valid, the company will re-mail it to the updated address if there is a forwarding address on the envelope [1]. If there is no forwarding address, the company will review comments to see if the address has been updated [1]. If the company is unable to re-mail the refund check, the check is then shredded [1]. If the customer calls back to reissue a refund check, follow the How to Void a Refund Check procedures [2].</t>
-  </si>
-  <si>
-    <t>When an insured has requested to cancel their policy and the policy is in ARS, you should use the reason "Insured's Request" [1, 3, 4]. You should not use any of the other cancel reasons as they should only be used by Underwriting [1, 3].</t>
-  </si>
-  <si>
-    <t>To complete an Auto Change Form in CLS, you will need to follow the steps in: Auto: Completing Change Form and Disposition in CLS [1, 3].</t>
-  </si>
-  <si>
-    <t>No, cell phone bills are not acceptable documents to list a driver as out of household (OOH) [1]. However, if the driver is already marked out of household on the home policy, documentation is not required [3].</t>
-  </si>
-  <si>
-    <t>To set up automatic payments through the secure payment line if the customer has a saved payment method, the customer can click Set Up Autopay from the policy card on their account Homepage [3]. If the customer has previously saved payment methods to their &amp;quot;Customer Wallet&amp;quot; they will be listed here [3]. Automatic payments can be set up with a bank account or a credit/debit card [3].</t>
-  </si>
-  <si>
-    <t>If a policy cancels mid-term for non-payment, the insured has up to 11 calendar days to reinstate it with a lapse [1]. For example, a policy cancelled on April 1, 2021 would have until April 11, 2021 to make payment to reinstate with lapse [1].</t>
-  </si>
-  <si>
-    <t>To access flood information from the Agency Dashboard, you can follow these steps [1]:
-1. At the top of the Farmers® Dashboard, click the Personal tab
-2. Another window will open. You will need to click the X on the Critical Notifications window
-3. You can now access the Flood information [1].</t>
-  </si>
-  <si>
-    <t>All documents follow a certain workflow within the system [4]. Customers can decline to sign a document if they want [5]. Declining will stop the reminder and expiration emails from being sent [5]. Customers will receive an email confirming it was declined [5].</t>
-  </si>
-  <si>
-    <t>Farmers Hawaii Underwriting Guidelines state that vehicle registration and residence of both insureds should be re-confirmed after six (6) months [1]. In court ordered divorce situations where the spouse is legally required to provide insurance, we are obligated to quote and insure both parties if vehicles are co-titled [1].</t>
-  </si>
-  <si>
-    <t>To process an SR-21, you can mail the Order of Security Requirements or Suspension notice to: Farmers Insurance Hawaii, Claims Services, PO BOX 770, Honolulu, HI 96808 [1]. The SR-21 will be mailed to the Financial Responsibility section and a copy sent to the Named Insured [1].</t>
-  </si>
-  <si>
-    <t>To remove a vehicle from the policy, you need to send a signed request to Service Operations or your agent [1, 5]. If an agent is the caller, confirm they received a signed insured request to drop the vehicle [5]. If the customer is the caller, let the customer know that a signed request is needed [5]. You can also remove a total loss vehicle by searching the policy and selecting "Remove Total Loss Vehicle" [4]. The system will default to one day after the loss [4]. You can also log into BWProducers.com and select "Delete Vehicle" on the appropriate vehicle [2]. You can also verify that you have obtained the signed request over the phone or process the change yourself [1]. You can't remove a vehicle from a canceled policy [3].</t>
-  </si>
-  <si>
-    <t>To remove a trampoline in ARS, you need to start a new change [1]. To do this, click on the Action dropdown [1]. Enter the effective date, what you are processing, and who is initiating the change [1]. Then, reach out to Underwriting via Chat Assist [1]. They will select Yes for the Trampoline [1]. The customer will need to send in proof that the trampoline is no longer there [1]. Acceptable proof includes a picture of the dismantled trampoline or a picture of the yard showing that it is no longer there [1]. You will need to document the ARS Notes screen, summarizing the changes processed and the reason for the requested change [2].</t>
-  </si>
-  <si>
-    <t>To add sinkhole coverage to a Florida policy in PolicyCenter, you can follow these steps [2]:  
-1. Choose the Account or search by Account number. 
-2. Select the policy number. 
-3. Select Actions on the side bar. 
-4. Click Change Policy. 
-5. Enter the Effective Date and click Next. 
-6. Select Coverages from the side bar. 
-7. Select Optional Coverages. 
-8. Under Other Optional Coverages, click Sinkhole. 
-9. Click Quote to rate changes. 
-10. Click Bind [2]. 
-For Change transactions, the customer will be required to submit a signed Sinkhole Coverage Request form [5]. The agent may scan the document to PolicyCenter and request that the coverage be added [5].</t>
-  </si>
-  <si>
-    <t>If the IVR says, “Begin New Quote”, the expectation is to begin a new quote [1]. If the IVR advises to start a new quote, do not utilize or update an existing quote [2]. A new quote must be started [2].</t>
-  </si>
-  <si>
-    <t>To rush the processing of a refund, you can contact Service Operations for assistance [1]. They will ask you to complete a Billing Action Needed (BAN) request to refund back to your credit card [1]. If extreme conditions exist, they will review if any other conditions exist which could help speed up the process [1].</t>
-  </si>
-  <si>
-    <t>If you receive the pop up message "Agent Credit Advice processing authority has been revoked. Contact your Service Center for assistance. (E84229)Are you sure?" you may not be able to process the ACA payment [1]. You may also receive the error message "Agent Identification number not on file" (E84178) [3].</t>
-  </si>
-  <si>
-    <t>The call opening steps include answering the phone with a branding statement and providing your name [1]. You can choose the most comfortable opening, and there is no required scripting [1].</t>
-  </si>
-  <si>
-    <t>To find out who cancelled a policy, you can review the notes on the policy or review the cancel code [4].</t>
-  </si>
-  <si>
-    <t>There is not enough information to answer the query.</t>
-  </si>
-  <si>
-    <t>To clear the error "FIRST DRIVER MUST BE NI", you need to mark the PNI as "I" [1]. You can contact Service Operations for assistance [1].</t>
-  </si>
-  <si>
-    <t>To add Sinkhole Coverage on a home policy in PolicyCenter, you can follow these steps [1]:  1. Choose the Account or Search by Account number 2. Select policy number 3. Select "Actions" on side bar 4. Click "Change Policy" 5. Enter Effective Date and click "Next" 6. Select "Coverages" from side bar 7. Select "Optional Coverages" 8. Under "Other Optional Coverages" click "Sinkhole" 9. Click on Quote to rate changes 10. Click Bind [1].</t>
-  </si>
-  <si>
-    <t>To cancel EFT on a policy, you must cancel the policy [1, 3]. Once the policy cancellation is processed, EFT will automatically terminate [3].</t>
-  </si>
-  <si>
-    <t>To find the policy jacket form number, you can retrieve the policy number in ForemostSTAR [3]. Then, review the Coverage screen, scroll down to the bottom, and click on the Policy Forms link [3]. You can also find the policy jacket form number on the Declarations Page of the policy [1].</t>
-  </si>
-  <si>
-    <t>In the state of Washington, verbal or written cancellation requests from the legal representative of the estate are acceptable [4].</t>
-  </si>
-  <si>
-    <t>A Certificate of Title Surety, also known as a bonded title, can be used in place of a standard vehicle title to register a car with the Department of Motor Vehicles (DMV), buy insurance for the car, or sell the car [1].</t>
-  </si>
-  <si>
-    <t>To cancel a policy, you can log into www.BWProducers.com and select "Manage my Customers" &gt; "Policy Search" &gt; "Search by Policy" [1]. Then, input the policy number and select "Cancel Policy" [1]. You can also contact Service Operations for assistance [3].</t>
-  </si>
-  <si>
-    <t>No, archived claims are not available through BW Producers [1]. You can contact the Claims Department for more information [1].</t>
-  </si>
-  <si>
-    <t>When adding a vehicle to a policy, the underwriter will consider the following: How many drivers are in the household, who operates the vehicles listed, how the vehicles are used, how the vehicles are titled/registered, and whether all vehicles are principally garaged at the residence [1]. If the risk becomes unacceptable, the underwriter will not add the vehicle or operator to the policy [1].</t>
-  </si>
-  <si>
-    <t>For Specialty Dwelling Policies, in FOCUS (PPPR): Type IN in TRAN CODE and the policy number in NUMBER, press enter. Type COV in the COMMAND line and press enter. TOTAL POLICY PREM will display in the upper portion of the screen on the far right column and directly below PRODUCER [3]. For Specialty Dwelling Policies, in ForemostSTAR (P2N): Enter the ten digit policy number in the &amp;quot;Retrieve Quote or Policy&amp;quot; tab Click on the &amp;quot;Billing&amp;quot; tab Scroll down the page to &amp;quot;Billing Information&amp;quot; The amount will be located next to &amp;quot;Total Policy Premium (Excludes Taxes and Fees)&amp;quot; [3]. For Casualty Policies, use ForemostSTAR: Enter the ten digit policy number in the &amp;quot;Retrieve Quote or Policy&amp;quot; tab Click on the &amp;quot;Coverages&amp;quot; tab The &amp;quot;Total 1 Year Premium&amp;quot; will show in the bottom right-hand corner [3].</t>
-  </si>
-  <si>
-    <t>There are many reasons why the registered owner of your vehicle may not be someone in your household [1]. For example, if the vehicle is leased, the registered owner may be the leasing company [1]. Or, if the registered owner is listed as a RO type of additional insured, they will show as the Registered owner on ID cards [1].</t>
-  </si>
-  <si>
-    <t>Agents can backdate a New Business policy up to 5 calendar days [4]. If the policy date change is more than 5 days, the Underwriter must handle it [2, 4]. Underwriters can backdate a quote/policy more than 5 days on an exception basis [4].</t>
-  </si>
-  <si>
-    <t>To order an inspection at Renewal, you can go to the Risk Analysis page and click on the inspections tab [1]. Scroll down to the Order Inspection section and check the box next to the desired inspection type [1]. Then, select Order Inspection, Quote, and Issue Policy [1].</t>
-  </si>
-  <si>
-    <t>To delete a vehicle from the policy, you need to log into BWProducers.com and select "Search by Policy" [1]. You can also use PSP and select "Search by Policy Number" [2]. You'll need to enter the policy number and click "Search" [1, 2]. You'll then need to select "Endorse Policy" and enter the effective date [1]. You can then select "Delete Vehicle" on the appropriate vehicle [1]. You'll need to sign the request and send it to Service Operations or your agent [4]. You can also remove a total loss vehicle by searching the policy and selecting "Remove Total Loss Vehicle" [3]. You'll need to verify that the effective date is one day after the loss [3]. You can't make policy changes if the policy is canceled [5].</t>
-  </si>
-  <si>
-    <t>There are four areas to review for accuracy when handling CSG calls [1]. If the quote is not from the same day, ask the customer if there have been any changes since the quote was initially completed [1]. If no changes are made to the quote, provide different payment options and attempt to bind [1].</t>
-  </si>
-  <si>
-    <t>If the insured has a dispute with Farmers Hawaii, they can file a dispute with Lexis Nexis [1]. Lexis Nexis will send a CLUE dispute form to the reporting insurance carrier who will investigate the claim [1]. The claim will need to be investigated to determine if the dispute being presented by the Insured is correct or not [2]. A response (via fax) to Lexis Nexis is needed to advise them if the dispute is valid or not [2].</t>
-  </si>
-  <si>
-    <t>If the SR doesn't contain a policy or account number, you should search the returned document for any insured information, such as a valid policy, account number, or address [1]. You can use Agency Dashboard to research for policy information [1]. If you find any insured information, you should send an email to the agent of record [1].</t>
-  </si>
-  <si>
-    <t>Yes, a surviving spouse can request to cancel a policy if there is no executor or trustee with legal authority to act on behalf of the deceased First Named Insured, and no other person/interest is named on the title [4].</t>
-  </si>
-  <si>
-    <t>If the agent has set up autopay and needs to obtain a copy of the authorization form, it can be located under the billing documents tab in Direct bill when there is a pending authorization for a paper EFT authorization form [1]. Once the trigger to receive the form is available this document will no longer be available [1].</t>
-  </si>
-  <si>
-    <t>To cancel a policy in Property to NextSTAR, you need to go to the Policy Summary tab and click Manage/Change Policy [1]. In the drop-down menu, select Cancel Policy and click Go [1]. Enter the effective date of the change, who is cancelling, the reason for cancelling, and click Continue [1]. The Estimated Disbursement or Amount Due will be listed [1]. Complete the cancellation by clicking the Issue Cancellation button [1]. Cancellation Documents will be mailed in 1-2 business days to the insured [1].</t>
-  </si>
-  <si>
-    <t>If you are unable to reach the caller, leave a voicemail including the SR number to reference so the caller has the opportunity to return the call [2].</t>
-  </si>
-  <si>
-    <t>To update a driver's years of experience, you can login to bwproducers.com or iaproducers.com [1].</t>
-  </si>
-  <si>
-    <t>If you receive a call from an Uber driver, you can transfer them to the TNC Claims Department at 877-327-6649 [1].</t>
-  </si>
-  <si>
-    <t>If the envelope has a forwarding address, the mailing address is updated [1]. If the return reason is mail is refused, no action is needed [1]. If the address is updated, the Underwriting memo may be closed and/or the non-renewal can be lifted without receiving proof of residence [4, 5].</t>
-  </si>
-  <si>
-    <t>To backdate a cancellation for a property or casualty policy more than 30 days, the following documents must be submitted: A valid cancellation request including: The insured's name, The policy number(s) to be cancelled, The requested effective date of cancellation, The signature of either the Primary Named Insured (PNI) or the Secondary Named Insured (SNI) [2]. Property: Seller's Statement or Closing Disclosure including: The Named Insured as the seller, Sale date, Location address or property description matching the location address or unit on the Foremost® policy, Buyer's name [2]. Insured's Lease Expired document or Notice to Vacate: Documentation such as correspondence from the landlord or management company confirming a termination of contract [2]. Some acceptable documents include a bill of sale, proof of another policy on the same property, death certificate, or proof of a total loss [3]. [1].</t>
-  </si>
-  <si>
-    <t>To add a Loss Payee to a casualty policy, you can follow these steps [1]: 1. Click "Search". 2. Click the "Unit" tab (e.g. Motorcycle, Off Road Vehicle, Watercraft). 3. Click on the unit you are making the change to. 4. Scroll down to the "Additional Interest" field. 5. Click "Change". 6. Input the Effective date of the change. 7. Make the desired changes [1].</t>
-  </si>
-  <si>
-    <t>The product codes for Specialty Dwelling are 3-digit [4].</t>
-  </si>
-  <si>
-    <t>To process MailScan, the user must first press Open and choose a document from the CONTENT folder [1]. The document image will display in MailScan [1]. The user must then select the Line of Business and Transaction Type [1]. The Transaction Type options match the Easylink Queues [1].</t>
-  </si>
-  <si>
-    <t>Effective January 1st, 2021, insureds in Louisiana will need to submit a request to cancel their policy in writing [1]. You can call your agent to cancel your policy [3]. You can also process the cancellation online through the ForemostSTAR website [4].</t>
-  </si>
-  <si>
-    <t>Verbal cancellation scripts can be found at [1]. For requests within the first 60 days of a new business policy in Florida, review state specifics [4]. If the requested cancel effective date is in the past, a written request is required along with the appropriate supporting documents [4].</t>
-  </si>
-  <si>
-    <t>To refer a request to another brand, you can use the Work Point Pro system [1]. After creating the SR, you can refer it to the Bristol West queue BW-Endorsement [1]. To exit the SR, click the 'X' on the SR [1].</t>
-  </si>
-  <si>
-    <t>Generally, State facilities do not accept electronic ID Cards when requesting proof of insurance [1, 2]. ID Cards must print on state approved fraud resistant paper [1, 2]. Faxed or Emailed ID Cards are not valid proof of insurance [1, 2].</t>
-  </si>
-  <si>
-    <t>Yes, extensions on DNOCs may be available [1]. When considering a request for an extension, you should consider the customer's previous payment history in the last 12 months [1].</t>
-  </si>
-  <si>
-    <t>Generally, State facilities do not accept electronic ID Cards when requesting proof of insurance [1, 2, 3]. ID Cards must print on state approved fraud resistant paper [1, 2, 3]. Faxed or Emailed ID Cards are not valid proof of insurance [1, 2, 3]. As a courtesy, the company may fax or mail ID cards per the customer's request [1, 2, 3].</t>
-  </si>
-  <si>
-    <t>Yes, Texas does have loss run requests [1, 5]. In order to release the loss runs, you would need a signed and dated request on insured letterhead stating you are able to release them to your agency [5]. The insured or the current agent of record may also request the loss runs directly from you [5].</t>
-  </si>
-  <si>
-    <t>Park models are trailers built on a single chassis mounted on wheels that have a gross trailer area not exceeding 400 square feet [2]. They are primarily designed for long-term or permanent placement at a destination where an RV or mobile home is allowed [3].</t>
-  </si>
-  <si>
-    <t>You can backdate a New Business Quote up to 30 days without additional approval [3]. Approval past 30 days should go to chat assist [3]. Transactions will only be backdated in the event of company error, not customer or agent error [3]. When the customer requests a backdate transaction that decreases premium and the delay is due to a late request from the customer, and not company error, we will backdate the request 90 days unless proof supporting the earlier date is received [5].</t>
-  </si>
-  <si>
-    <t>To cancel a policy, the person verbally requesting or signing a cancellation request must be one of the following: Primary Named Insured, Secondary Named Insured, or Spouse of Named Insured [1]. For a retroactive cancellation more than 60 days prior to date of request, an insured's signed request, along with acceptable supporting documentation, is needed [2].</t>
-  </si>
-  <si>
-    <t>To process a refund void stop pay request, you can open a Word document and title it with the current date followed by Void Stop and your initials [3]. You can then review the diary comments and void stop pay request [3]. At least one must state the agent or named insured was advised not to attempt to cash the original check [3]. If not noted, the request cannot be processed [3]. You can also process the void via AS400 [4]. Be sure to screen shot and copy to Word document prior to finalizing AS400 void [4]. You can also reapply a same day refund to a policy [4]. The Diary Comment policy should state: Processed Void Stop Pay request to Reapply refund to policy [4]. You can save Word document screen shots to shared Z drive: Operations/Accounting Services/Accounting Services/Void check_Stop pay/2Void Stop Pays/Year Void Stop Pays/Month Void Stops [4]. If one of the individuals on the refund check is now deceased, you can stop payment and reissue a refund check payable to both the living person and â€œThe Estate ofâ€• the deceased person [2].</t>
-  </si>
-  <si>
-    <t>Yes, class codes place customers with similar characteristics (such as vehicle use) into categories or "classes" [5].</t>
-  </si>
-  <si>
-    <t>A replacement bill can only be requested for a canceled policy if money is still owed and an earned premium bill (655 or 656) has been issued [1].</t>
-  </si>
-  <si>
-    <t>Yes, the FWS Retention team supports A360 [1].</t>
-  </si>
-  <si>
-    <t>Yes, if a payment returns on the renewal, it can be replaced along with an NSF fee to renew the policy with a lapse within 30 days [4]. The insured will be required to re-enroll with updated account/card information [1].</t>
-  </si>
-  <si>
-    <t>No, Service Advocates are not able to combine multiple submissions, emailed by the agent for Submit For Approval, into one [1].</t>
-  </si>
-  <si>
-    <t>If a caller only has a claim number, you should contact Service Operations for assistance [1].</t>
-  </si>
-  <si>
-    <t>The billing code for a renewal policy is 020 [1].</t>
-  </si>
-  <si>
-    <t>To convert a file to PDF, you can right click anywhere on the page of the opened BNB and select Print [2]. Make sure the Destination is Save as PDF and click Save [2]. Choose where you want to save the PDF file on your computer and click Save to complete [2]. You can also use Adobe to merge 2 PDFs into 1 [4]. There are two methods: 1. Open Adobe, navigate to Tools under the menu bar, click Combine Files, drag and drop the PDFs to be merged into the Combine Files Pop Up [4]. 2. Open first document to be combined, navigate to Tools under the menu bar, click Organize Pages, click Insert, click From File, use the browser to find the document to be combined, click Open, use the Insert Pages pop up to select where the PDF will be added into the original document, click OK, save the document [4].</t>
-  </si>
-  <si>
-    <t>Yes, you can contact customers without PEWC during renewal [2].</t>
-  </si>
-  <si>
-    <t>To access flood information from ADE, you can click the Flood tab on the lower section of the screen [1]. You can choose from the links provided to obtain the needed information [1].</t>
-  </si>
-  <si>
-    <t>To refresh a pivot table, go to the Status tab, click within the pivot table, go to Analyze, select Change Data Source, highlight starting in A1 Column U, and down to the last row with data, hit Refresh [1].</t>
-  </si>
-  <si>
-    <t>The Retention ARS Transfer Process is as follows: Use the Retention transfer number provided [1]. For GPC 017/Mercer, send calls to Mercer at 800-999-6642 [1]. For internal calls, use the internal phone directory via SRM [1]. All calls to this team should be a warm transfer to help maximize the customer experience [1]. If the customer declines the transfer, process the customer's cancellation request [1]. If the policy is not eligible for Retention Team support, assist the customer with their request or refer them back to their agent for assistance [1]. Sales Consultants may state DOB and zip code without asking the customer to reconfirm it [3]. If the customer is warm transferred to Retention by Customer Service team, the Retention Agent does not need to verify or pass security for the customer [3].</t>
-  </si>
-  <si>
-    <t>Yes, there is an issue with Hawaii renewal premiums [1]. The company is working to correct the error and expect the premium could decrease [1]. Revised policy documents will be sent showing the correct premium [1].</t>
-  </si>
-  <si>
-    <t>The following documents are required for CA Mileage after renewal and are to be sent in by Agent/Broker in order to adjust Mileage/Rate for every vehicle included on the policy: Request must be in writing [1, 4]. Must include completed Annual Mileage Survey document [1, 4]. Must include 2 service documents from 3rd party Service Center that timestamp the mileage difference from the prior term to the renewal [1, 4]. Eg, Oil change receipts, tire rotation services or any car repair document that captures mileage on the vehicle [1, 4].</t>
-  </si>
-  <si>
-    <t>The following folders in the Content folder need to be worked as part of the MailScan: 2018, Backend Mail, and HI_1stop_Mailscan_doc [1].</t>
-  </si>
-  <si>
-    <t>For graduated licensing, a licensed parent, legal guardian, or licensed driver over age 21 must accompany the youthful driver at all times [1]. A provisional license driver may not operate a motor vehicle between 11pm and 5am unless accompanied by either a parent or guardian that is licensed to drive the same type of motor vehicle and is seated in the passenger seat beside the driver [1].</t>
-  </si>
-  <si>
-    <t>If underwriting sent a notice to the insured but hasn't issued a non-renewal yet, and that notice has been satisfied, you would recycle the follow up comment(s) from Underwriting [3].</t>
-  </si>
-  <si>
-    <t>If the caller hands the phone to someone else in the agent's office, the new party must be advised that the call is being recorded [3, 5]. You can continue the call as long as the caller completes the caller verification process [1].</t>
-  </si>
-  <si>
-    <t>Yes, you can join HEA even if you are a member of HSTA [1].</t>
-  </si>
-  <si>
-    <t>To refer a request to another brand, you can contact Service Operations for assistance [3].</t>
-  </si>
-  <si>
-    <t>To order a renewal inspection, you can select the Risk Analysis page and click on the inspections tab [1]. Scroll to the bottom of the page and place a check mark in the box next to the desired inspection type [1]. Select Order Inspection, Quote, and Issue Policy [1].</t>
-  </si>
-  <si>
-    <t>If the CLUE report will not run at new business, you can try uploading the policy as is and the reports will be run after upload [1]. You can also verify all customer information is correct, such as DOB, DL, and spelling of name [1].</t>
-  </si>
-  <si>
-    <t>Theft coverage is included on a watercraft policy if the policy has Hull coverage [1]. If the policy is liability only and does not have Hull coverage, there is no coverage for theft [1].</t>
-  </si>
-  <si>
-    <t>To look up a policy, you can use the FOCUS or ForemostSTAR system [3].</t>
-  </si>
-  <si>
-    <t>If the insured disagrees with what is being reported by Farmers Hawaii, they may contact Farmers Hawaii to correct reported activity [1]. If they file a dispute with Lexis Nexis, a CLUE dispute form from Lexis Nexis will be sent to the reporting insurance carrier who will be responsible for investigating the claim [2].</t>
-  </si>
-  <si>
-    <t>To see transaction history in PolicyCenter, you can click Policy Transactions from the left-hand menu [1]. If needed, change the Status drop-down from Bound to All [1]. Locate the desired transaction and click on the hyperlinked transaction number [1]. You can also view transaction history in Express [2, 5]. From the Summary tab, click Household History [5]. See rows of transactions, select the desired bullet and click View Change Summary [5]. Use numbered page links to access earlier dates [5]. For additional details, click Long View on the Change Summary [5]. To view Cascaded Versions, click the plus (+) on the Change Summary to expand [5].</t>
-  </si>
-  <si>
-    <t>To reach an interpreter, you can call 1-800-946-7990 for assistance in all languages [1]. For Spanish interpreters, you can use the direct dial number 1-800-434-2076 [1]. It is recommended to note the use of language services to aid in future customer interactions [1]. You can contact Service Operations for assistance [4].</t>
-  </si>
-  <si>
-    <t>To add a motorcycle model not listed in the system to a quote, you can contact Casualty Underwriting with the following vehicle information: Vehicle Type, Vehicle Year, Make/Manufacturer, Model Name, Cubic Centimeters (CCs) if applicable, and Vehicle Identification Number (VIN) [1].</t>
-  </si>
-  <si>
-    <t>To access an interpreter or interpretation services, call 1-800-946-7990 and select the interpretation language required [1]. If communication breaks down, politely interrupt the interpreter and ask them to redirect questions back to you [1].</t>
-  </si>
-  <si>
-    <t>To add the Multi-Car discount, you can follow these steps: 1. In Policy Endorse, change Multi-State/Car Indicator to Yes 2. Click Rate/Submit [1].</t>
-  </si>
-  <si>
-    <t>Yes, a first and second named insured or individual with control can verbally cancel a policy in any state except Louisiana and Delaware [1].</t>
-  </si>
-  <si>
-    <t>To fix the Policy EFT Error: Missing required details, you can launch the Rate tab, select No from the Select EFT for Future Installments drop-down menu, click Recalculate, select EFT Yes-Debit Card/Checking/Savings from the Select EFT for Future Installments drop-down menu, click Recalculate, navigate to the Application tab to input the payment information, and click Save [1].</t>
-  </si>
-  <si>
-    <t>Expired credit card letters are sent automatically to customers who have autopay set up for their credit card [1, 3]. The letters are sent to notify customers that their credit card is about to expire [1, 3]. If a customer receives a letter and questions why, you should apologize and advise them to disregard the letter [1].</t>
-  </si>
-  <si>
-    <t>To check the status of a policy, you can use the Search/Change Quote or Policy option in ForemostSTAR [1].  The status will be displayed in the left hand Summary column, either to the right of or just under the policy number [1].</t>
-  </si>
-  <si>
-    <t>There are several examples of wording when completing the CU 22 40 12 04 Form and adding General Liability [2]. For example, "Add: underlying policy &lt;policy number&gt;" and "Change: umbrella liability limit to $(show limit)" [2].</t>
-  </si>
-  <si>
-    <t>MetCheck is a refund system used by Agent360 [1].</t>
-  </si>
-  <si>
-    <t>Yes, a Social Security disability check stub is an acceptable document for Out of Household (OOH) drivers [1].</t>
-  </si>
-  <si>
-    <t>If a caller requests a copy of the Farmers Do Not Call (DNC) Policy for Consumers, you must mail them a copy using the following steps: [1]</t>
-  </si>
-  <si>
-    <t>To handle a request for new business, you can follow the steps below: 1. Verify if the customer is inquiring about a policy for themselves [1]. 2. Confirm the state they need a quote written in [1]. 3. If the customer insists on immediate new business, transfer them to Direct Sales using the SRM directory [1]. 4. If the agency name only ends with “C/O FX Insurance Agency”, then this is a Fulfillment Agent and NOT a house account [1].</t>
-  </si>
-  <si>
-    <t>To check the status of a property policy in ForemostSTAR, you can click on the Search/Change Quote or Policy tab [1]. In the Quote/Policy Number field, type the policy number and hit Enter [1]. The status, Active or Cancelled, will show in the left hand Summary column [1].</t>
-  </si>
-  <si>
-    <t>Vehicles that are registered to a business are ineligible for use unless all of the following conditions are met: Vehicle must be a private passenger vehicle (mini vans are considered a PPV). Trucks and vans registered to a business are not acceptable [1]. The vehicle is used solely as a personal use vehicle by the prospective policyholder [1]. The business is a professional business such as a doctor, lawyer, accountant, engineer, or architect [1]. There is no transportation of employees, clients, goods, or materials [1]. Only one such vehicle registered in the name of a business can be listed [1]. Vehicles registered to a business must be rated for business use [1]. If eligible: Rate the vehicle for business use 100% [1]. The owner of the business should be listed as a policyholder [1].</t>
-  </si>
-  <si>
-    <t>Yes, you can transfer an IL policy to the retention team [1].</t>
-  </si>
-  <si>
-    <t>There are many reasons why you may get a refund when your policy is active [3].</t>
-  </si>
-  <si>
-    <t>To determine if ordinance or law is covered, you can check the applicable state program guide [2]. You can also get into the quote or policy from ForemostSTAR [1]. Then, go to the Coverage page and click on Policy Forms at the bottom right [1]. Get the endorsement number for the replacement cost roof coverage [1]. Locate the endorsement in the supply source to verify if it includes Ordinance or law [1].</t>
-  </si>
-  <si>
-    <t>The Policyholder EFT Error: Missing required details message is fired when clicking save after inputting the payment information on the Application tab [1]. To clear this error, you can expand the vehicle(s) to show all vehicle information [2]. You can then select the town name for the vehicle(s) that appears highlighted [2]. You can also contact Service Operations for assistance [3].</t>
-  </si>
-  <si>
-    <t>To set up the Document Retention Stationery, you can follow these steps: 1. Setup the table below as an Outlook stationery 2. To field: Walter Mail 3. Subject Line: Retention of Document 4. Once saved, open the stationery 5. Complete the information in the table 6. Attach the document to the Outlook email and send [1].</t>
-  </si>
-  <si>
-    <t>Billing code 110 is a lockbox payment or a check-only payment that is received via electronic transmission [1].</t>
-  </si>
-  <si>
-    <t>Yes, PA is an auto long state [1, 2].</t>
-  </si>
-  <si>
-    <t>To revoke PEWC, you need to send an email to USW_21ST_Back_Office [1]. You can revoke PEWC by viewing PSP to validate the PEWC is currently active [1].</t>
-  </si>
-  <si>
-    <t>Yes, you can verbally cancel a Delaware policy within 30 days of the cancel request date [1, 3]. However, you must complete the Delaware Cancellation Affidavit (Form 8146) and return it to Foremost [3, 5].</t>
-  </si>
-  <si>
-    <t>Yes, the Advanced Purchase Discount is available in MX [1, 4]. The discount applies when the policy is uploaded at least two days before the effective date and the insured has prior insurance with no lapse in coverage [1, 3]. Bristol West as prior insurance does not qualify [1].</t>
-  </si>
-  <si>
-    <t>For 0 lost-time claims, the merit rating adjustment is a 5% credit [1, 4]. This is because the merit rating is an adjustment to the insured's premium based on the number of lost-time claims over the last three policy years [5]. The merit rating is similar to the experience rating, but for risks that are too small to qualify for experience rating [5].</t>
-  </si>
-  <si>
-    <t>The Service Assist program is an opt-in, fee-based subscription designed to assist Farmers® agents with specific service transactions [1]. When an eligible agent opts-in to use this service, the Service Assist Team can assist the agent with certain tasks and transactions, including but not limited to: Billing inquiries, Digital enrollment, Policy updates, Agency Dashboard alerts [1].</t>
-  </si>
-  <si>
-    <t>To copy a submission in PolicyCenter, click the Actions button and select Copy Submission [1]. PolicyCenter will redirect you to the copy of the submission [1]. You can also copy data from a submission or policy to a new submission [2]. To do this, start a new submission in the same account [2]. Answer the Credit and Privacy Questions [2]. Click the actions button and select Copy Data [3]. Change the Search For drop down to the desired criteria [2]. Enter the policy transaction number to copy and click Search [2].</t>
-  </si>
-  <si>
-    <t>A multi-car discount does not apply if the customer has another vehicle in the household which is insured elsewhere [1]. It also does not apply to company supplied private passenger type vehicles, pickup trucks or vans [1].</t>
-  </si>
-  <si>
-    <t>A seismic event is classified as aftershocks or other quakes that are related to the same earthquake within 15 days or 360 hours after the original earthquake [1].</t>
-  </si>
-  <si>
-    <t>To start a chat, log in to BWProducers, hover over Manage my Customers, select Policy Search, and then select either Search by Name or Search by Policy [1]. Enter the insured's Name/Policy Number and click Search [1]. Select the drop-down menu next to Policy Summary and click Chat Now [1]. Enter your policy question and click Launch Chat [1]. You can also start a chat from the home page or search page of BWProducers [1]. However, it is recommended to open the policy first so the information transfers to Service Operations [1]. You can start a chat to contact Service Operations [1].</t>
-  </si>
-  <si>
-    <t>You need an ERM-14 form when there is a change in ownership, FEIN, entity type, or Other Named Insured with common majority ownership and is listed on a Workersâ€™ Compensation policy [2].</t>
-  </si>
-  <si>
-    <t>An insured may request policy cancellation at any time, due to the purchase of coverage with another company, sale of the property covered by the policy, move to another state, death of the insured, or no further need for insurance [1, 2].</t>
-  </si>
-  <si>
-    <t>To check if a policy has ordinance or law coverage, you can: 
-1. Go to the Coverage page.
-2. Click on Policy Forms at the bottom right.
-3. Get the endorsement number for the replacement cost roof coverage.
-4. Locate endorsement in supply source to verify if it includes Ordinance or law [2].</t>
-  </si>
-  <si>
-    <t>To link relevant articles to the SR, you can locate an article through the global search or favorites [2]. Then, click on Link to SR [2]. You can also click on the smart link for the article used to service the call or chat and link that article to the SR [3, 5].</t>
-  </si>
-  <si>
-    <t>Yes, insureds can print renewal notices on the Farmers Specialty Auto website [1]. Other documents that can be printed include invoices, pre-cancel notices, policy contracts, and ID cards [1]. However, the insured cannot print their own ID card [5].</t>
-  </si>
-  <si>
-    <t>Yes, Michigan benefits qualify for QHC in VA [1].</t>
-  </si>
-  <si>
-    <t>There is no specific wording for deleting General Liability on the CU 22 40 12 04 Form [1, 2].</t>
-  </si>
-  <si>
-    <t>To get an interpreter, you can call 1-800-946-7990 and enter the PIN for the language you need [1, 2, 3]. For example, for FIA/FACT policies, you would enter 3018 [1, 2]. You can also type in "interpreter" and select from the phone book [1, 2]. If there are phone issues connecting to the interpreter line, you can call 800-434-2076 [1, 2].</t>
-  </si>
-  <si>
-    <t>If the insured was involved in an accident or has a pending claim, they can request an exception to backdate coverage, reinstate the policy, or amend the effective date [4]. The insured should contact their claims adjuster for assistance [4]. If the insured has a claim filed with the company, no proof is required [2]. If the insured has not paid towards renewal, they can cancel the policy back to the effective date without proof [2]. If the insured has received other coverage, they can verbally backdate 30 days without proof [2]. If the requested endorsement results in a decrease in premium, the change date should be used [5]. If the agent states that the coverage was added in error, the backdating of coverage can be reviewed [3].</t>
-  </si>
-  <si>
-    <t>The Retention Team is a department staffed with licensed representatives who conduct policy reviews in an effort to retain business [1]. These reviews can include a discussion of coverages, discounts, and policy rating details that impact pricing [1]. The Retention Team is available Monday - Friday, 8:00 am. ET - 7:00 pm [1].</t>
-  </si>
-  <si>
-    <t>A loss payee can only release information about the policy that is not considered non-public, personal information (NPPI) [1]. This includes information such as date of birth, social security number, etc [1]. A loss payee can also add, replace, or delete loss payee information [4]. They can also cancel a policy due to foreclosure or repossession, but only by fax or mail [4].</t>
-  </si>
-  <si>
-    <t>You can contact the producer IT department for custom service by calling 1-800-531-5981 [5].</t>
-  </si>
-  <si>
-    <t>A GPC code is a three-digit account-specific code that identifies the Group Account affiliation (company/employer name) [1]. It is used in the Group Eligibility File to access employee information [3].</t>
-  </si>
-  <si>
-    <t>To contact Service Operations through chat, you can log in to BWProducers, hover over Manage my Customers, and select Policy Search [5]. You can search by Name or Policy, and enter the insured's Name or Policy Number [5]. Once you select the policy, you can click the Chat Now button [5]. You can also start a chat from the home page or search page of BWProducers [5]. However, it is recommended to open the policy first so the information transfers to Service Operations [5].</t>
-  </si>
-  <si>
-    <t>All calls to the retention team should be a warm transfer to help maximize the customer experience [1].</t>
-  </si>
-  <si>
-    <t>If a vehicle use is ineligible, follow the procedures below:
-New Vehicle Exposure: DO NOT add the vehicle and DO NOT provide ID cards [1].
-Enter a "flagged" comment and document "DO NOT ADD - [1].</t>
-  </si>
-  <si>
-    <t>Dovetail is a policy that is handled by the CSC team [1]. The IA subagents do not have access to any Farmers systems [1].</t>
-  </si>
-  <si>
-    <t>An automatic refund is a refund generated automatically when the amount paid is greater than the amount owed [1]. A refund, also referred to as a disbursement, will automatically be sent out within 10 business days of one being available [5]. This is either due to an overpayment of premium or a credit related to a policy transaction [5].</t>
-  </si>
-  <si>
-    <t>In Florida, there is a $10 fee when paper documents are sent instead of receiving electronic documents through the Go Paperless program [2].</t>
-  </si>
-  <si>
-    <t>To view billing history on Bristolwest.com, click on the Billing Information link on the Customer Home Screen [1]. You can view the following on the Billing Information page: Payment History, including Failed Payments and Remaining Payments Waives [1].</t>
-  </si>
-  <si>
-    <t>Generally, State facilities do not accept electronic ID Cards when they are requesting proof of insurance [1, 2, 3, 5]. ID Cards must print on state approved fraud resistant paper [1, 2, 3, 4, 5]. Faxed or Emailed ID Cards are not valid proof of insurance [1, 2, 3, 5]. As a courtesy, the company may fax or mail ID cards per the customer's request [1, 2, 3, 4, 5].</t>
-  </si>
-  <si>
-    <t>To rush a refund on a checking account, you can collect a copy of the back records showing payment has cleared including a running balance [1]. You can also complete a Billing Action Needed to request the refund be rushed [1]. You can also contact Service Operations for assistance [2]. You can only process a refund if it has been at least 5 business days since the payment and there have been no returns [2]. If the request is received during these 5 days, that time will be added to wait for refund [3]. This time can be accelerated if you received a copy of the bank statement [3]. You can't issue a refund to a checking account if the credit on the policy is not equal to a full payment that was taken [2]. You also can't refund to a card or checking account not used on the policy [5].</t>
-  </si>
-  <si>
-    <t>The agent may not be able to process a payment through their ACA if their agent code is invalid, not on file, or if they have not set up an ACA/Farmers Bank Account [1]. They may also not be able to process the payment if they have dual licensed [1]. The agent may also receive the error message "Agent Identification number not on file" when trying to submit a payment [2].</t>
-  </si>
-  <si>
-    <t>For Texas, the effective date of the cancellation must be 30 days from the date of receipt in a state's transportation division [4].</t>
-  </si>
-  <si>
-    <t>You need to document the comment for adding EFT in the following systems: BillingHub, SRM, and the processing system [1]. You need to include the following information in the comment: what was done, why it was done, the reason, and the action taken [1]. If the system captures any part of the required comment, you don't need to manually add that information to the comment [2].</t>
-  </si>
-  <si>
-    <t>After the autopay option is selected, a pre-filled copy of the EFT form can be found in Direct Bill when there is still a pending trigger to receive a paper copy of the EFT authorization form [1]. If the authorization type chosen during autopay set up was electronic signature (DocuSign), then the paper form will not be available in Direct Bill [5].</t>
-  </si>
-  <si>
-    <t>To check the status of an Agent of Record (AOR) change, you can contact Hagerty at 1-800-747-5348 [1]. You can also contact JC Taylor at 1-800-221-5888 [3].</t>
-  </si>
-  <si>
-    <t>There are several places you can check to see the status of the policy [5]. From the search screen you can view policy status by looking at the status column next to the insured's name [5]. From the policy summary screen the policy status is listed under the policy number [5].</t>
-  </si>
-  <si>
-    <t>A qualified email must include the following (clearly provided somewhere in the email): Insured’s name, Policy number, Cancellation date, Signature (Typed name) [1, 4]. Note: The email must come from the insured’s email address [1, 4]. Requests to cancel from an email that is not the insured’s email address on file is not acceptable [1].</t>
-  </si>
-  <si>
-    <t>Yes, the system can identify security codes from the Vehicle Identification Number (VIN) [1]. The system will automatically indicate the anti-theft discount [1].</t>
-  </si>
-  <si>
-    <t>To process a rush request for a letter of experience loss history letter, you can email your request to imaging@foremost.com [1, 4]. In the subject line, include Attn: Schedules and the policy number [4]. You can also contact Service Operations [1].</t>
-  </si>
-  <si>
-    <t>No, New Jersey auto policies cancelled for non-payment cannot be reinstated [1, 2]. Agents may re-submit eligible risks as a new policy transaction on request [1]. Any outstanding premium and fees for the terminated policy must be paid before a new policy can be issued [1, 2].</t>
-  </si>
-  <si>
-    <t>If the required proof has not been received to make a mileage change after the renewal effective date, decline the request and refer it back to the agent/broker for additional information [1]. The following documents will be required for CA Mileage after renewal and are to be sent in by Agent/Broker in order to adjust Mileage/Rate for every vehicle included on the policy [4].</t>
-  </si>
-  <si>
-    <t>When you receive a "No Connect" error message when ordering an MVR on a NB policy, you should verify that all information is correct [1]. If the information is correct, you can try to re-order the reports at a later time [1]. You may also get notifications such as "MVR Response Header Not Found" or "No-Hit" [3]. "MVR Response Header Not Found" indicates that a MVR was never ordered [3]. "No-Hit" indicates that the system attempted to run the MVR but could not retrieve it [3]. If you receive either of these notifications, you should research the policy to find out what may have caused the MVR not to order [3]. You should also contact Service Operations for assistance [4].</t>
-  </si>
-  <si>
-    <t>You can list a married couple as male/female on a quote [2]. Once the policy is active, the gender can be corrected [2].</t>
-  </si>
-  <si>
-    <t>The HEA Membership Enrollment Promotion provides a discount to active and retired Hawaii teachers and educators who agree to become an HEA member [1]. Farmers Hawaii will enroll you as a new member of HEA and cover the first-year membership fee [1]. After the first year, HEA will contact you for the annual membership fee of $20 [1].</t>
-  </si>
-  <si>
-    <t>To process a trampoline in A360, you can select the "Yes" radio button for the trampoline question [1].</t>
-  </si>
-  <si>
-    <t>The supporting documentations to update VIN include: title, vehicle registration, vehicle window sticker or drivers side door sticker [1]. If going back farther than 5 days, documentation showing the correct VIN will be required [1]. You can also provide proof of ownership such as a proof of purchase, bill of sale, vehicle registration, signed title, or a HLDI report [4, 5].</t>
-  </si>
-  <si>
-    <t>The fax number for loss run requests from third parties is 855-866-6877 [2, 3]. Requests should be submitted to business.agentservice@farmersinsurance.com or via fax to 855-866-6877 [3]. In order to protect the privacy of the insured, loss runs or loss experience information may not be sent to any 3rd party requestor [3].</t>
-  </si>
-  <si>
-    <t>Proof of residency documents must be in English [1]. If not available in English, it may be accompanied by a certified translation [1]. Proof of residency is only required for the named insured or the spouse of the named insured [2]. Bank statements are not an acceptable form of proof of residency [3]. Acceptable forms of proof of residency include: * A current driver's license or state ID card * A current utility bill * A current lease agreement * A current mortgage statement * A current property tax statement * A current homeowner's or renter's insurance policy * A current statement from a credit union or bank * A current statement from a telecommunications company [2, 5].</t>
-  </si>
-  <si>
-    <t>Yes, you can use a lease agreement as proof of residency [1].</t>
-  </si>
-  <si>
-    <t>H F08 is an error code that means "Error opening wind/hail/hurricane table" [1].</t>
-  </si>
-  <si>
-    <t>I don't have enough information to answer the query.</t>
-  </si>
-  <si>
-    <t>The retention team is open Monday - Friday, 8:00 am - 7:00 pm ET [1].</t>
-  </si>
-  <si>
-    <t>If a statement has already generated when the due date is changed, the original due date will still apply for the current month [1]. The new due date will apply on the next statement generated [1].</t>
-  </si>
-  <si>
-    <t>Yes, the customer will still receive a paper bill when set up on EFT [1, 2]. However, the customer can choose to receive paperless billing through MyForemostAccount.com [1].</t>
-  </si>
-  <si>
-    <t>Yes, a roof can have worn shingles [1, 2]. Dwellings with damaged shingles may be eligible for coverage depending on the severity of the damage [4].</t>
-  </si>
-  <si>
-    <t>Yes, SR 22 requirements do require document tracking for trexo [4, 5].</t>
-  </si>
-  <si>
-    <t>To avoid a service charge, the customer may enroll in Electronic Funds Transfer (EFT) to reduce the service charge, or both EFT and paperless billing to eliminate the service charge [1].</t>
-  </si>
-  <si>
-    <t>To get an interpreter, you can call 800-946-7990 or use the phone book and type "Language Interpreter" [1]. You can also use the conference function to bring the caller on the line as a 3 way call [1]. Don't transfer the caller [1]. It's important to advise any new party to the phone call that the call is being recorded [3].</t>
-  </si>
-  <si>
-    <t>If you believe an extraordinary life circumstance has negatively impacted your credit information, you may request, in writing, that we provide reasonable exceptions to our underwriting and/or rating practices [2, 3].</t>
-  </si>
-  <si>
-    <t>The HRS code for the No Reconstruction Permit/Sticker is 431:10C-104 [1].</t>
-  </si>
-  <si>
-    <t>For verbal cancellation scripts, you can find them at [1]. The script includes the following: 
-1. Confirm that the chat conversation serves as the written request to cancel the policy 
-2. Note any additional pertinent information as needed 
-3. Add diary action &amp;quot;IBF&amp;quot; with &amp;quot;VR&amp;quot; as the result code [1]. 
-For verbal cancellations, you can also find more information at [2]. For example, in Louisiana, verbal cancellations are no longer acceptable [2].</t>
-  </si>
-  <si>
-    <t>If you have a policy with Farmers, you can transfer it to the retention team by calling 855-666-5805 [1]. You can also transfer your policy to the agent360 team by calling 800-422-4272 [2]. If you want to transfer your policy to an agent, you will need to cancel your current policy and ask the agent to rewrite a new one [3].</t>
-  </si>
-  <si>
-    <t>Yes, you can change the pay plan for a second time if the term is future effective [1]. You will need to submit a copy quote or rekey [1]. You will also need to make a payment for the quoted down payment and call Service Operations after the payment is applied [3]. You can also change the coverage and the pay plan at the same time [4]. However, coverage for a specific loss is subject to claims investigation [4].</t>
-  </si>
-  <si>
-    <t>The fax number for the claims department is 855-822-3139 [1].</t>
-  </si>
-  <si>
-    <t>SR22s automatically expire after 3 years from the filing date [1].</t>
-  </si>
-  <si>
-    <t>If you have two married people of the same gender on a quote, you can list them as Male/Female on the quote [1]. Once the policy is active, you can correct the gender [1].</t>
-  </si>
-  <si>
-    <t>Endorsements take an overnight cycle to process [2]. If the endorsement is still pending the next day, there may be an error [2]. The endorsement will show pending until the effective date of the change [1].</t>
-  </si>
-  <si>
-    <t>Yes, you can reinstate a policy written in Mexico [2, 4]. If a payment is received within 7 calendar days of the cancellation date, the policy will automatically be reinstated [1]. After 7 days, a rewrite (reinstatement with a lapse) will need to be processed [1].</t>
-  </si>
-  <si>
-    <t>CSG stands for Customer Solutions Group [1].</t>
-  </si>
-  <si>
-    <t>Chargeable violations are violations that have a Y in the chargeable box [1]. This means that the violation is being charged [1]. When the violation is no longer chargeable, it displays with an &amp;#39;EX&amp;#39; to indicate that it is Expired in the system [2].</t>
-  </si>
-  <si>
-    <t>There are no specific requirements for adding EFT in a comment [1, 2]. You can include information such as why the document was rejected and what actions are required to make the document acceptable [2]. You can also include the date, the employee's name, and the policy number [1, 4].</t>
-  </si>
-  <si>
-    <t>MCO 19 policies must use Bristol West/Foremost EFT authorization forms [1].</t>
-  </si>
-  <si>
-    <t>If you believe an extraordinary life circumstance has negatively impacted your credit information, you may request, in writing, that we provide reasonable exceptions to our underwriting and/or rating practices [3, 5].</t>
-  </si>
-  <si>
-    <t>Yes, proof of residency is acceptable if it is in Spanish [1]. However, these specifications are only used to verify the residence or garage address [2]. They are not used to verify homeownership [2]. You can find a Spanish speaking agent for your customer by going to https://agents.farmers.com/ [4]. Enter the customer's ZIP code and click Search [4]. In the More Search Options box, click the Filter by Language drop-down and select the needed language [4]. Click the Refine button [4].</t>
-  </si>
-  <si>
-    <t>To view alerts on BWP, an agent can log onto BWP and go to the Manage My Customers tab [1]. From there, they can select Policy Alerts to choose an option to view [1].</t>
-  </si>
-  <si>
-    <t>I don't know if you can reinstate a Policy written in Mexico.</t>
-  </si>
-  <si>
-    <t>Extensions are placed from the due date, not the date placed [2].</t>
-  </si>
-  <si>
-    <t>Yes, Account Underwriting (AU) handles COVERAGE34D [1]. If an agent requests to non-renew a policy where an underwriting violation has not been identified, they can request cancellation of the policy or set it up to not renew [3]. If a request made to Account Underwriting is declined and the agent escalates, they should contact Service Operations for assistance [4].</t>
-  </si>
-  <si>
-    <t>Mock affidavits are used for policyholders who were not insured at the time of the citation for a "No No-Fault Insurance" violation [1]. At their court appearance, the judge may want confirmation that they now have insurance [1]. A "Mock" Affidavit is issued to prove the customer now has insurance [1].</t>
-  </si>
-  <si>
-    <t>There is no fee to renew with a lapse in New York [3]. However, there is a $25 fee to renew with a lapse in coverage [2, 5].</t>
-  </si>
-  <si>
-    <t>When receiving a "No Connect" error message when ordering an MVR on a New Business policy, verify all information is correct [1]. If the information is correct, attempt to re-order reports at a later time [1].</t>
-  </si>
-  <si>
-    <t>To work the PIRC report, you can review the policy (all mods) in Receivables [5]. Sign-on using AS400 credentials, then select Receivables, Direct Bill, Policy Inquiry List, enter Policy Number, and select 6 next to the policy to view Policy Status [5]. If EFT is Active, it will show **EFT ON** in the top right corner [5]. If EFT is on, you will need to terminate EFT [5]. To terminate EFT in AS400, input 1 in Policy Holder Preference, confirm EFT Terminate Reason is â€œDNWâ€• Did Not Want EFT, select Reason Code as DNW, and review policy again in Receivables to confirm **EFT ON** indicator is gone [5]. If **EFT ON** in receivables but EFT shows terminated, A Defect (QC) will need to be opened [5].</t>
-  </si>
-  <si>
-    <t>There are no verbal cancellation scripts [1].</t>
-  </si>
-  <si>
-    <t>You can reach Farmers Special Investigations Unit (SIU) by calling 888-662-6616 or by emailing siu.resource.center@farmersinsurance.com [1].</t>
-  </si>
-  <si>
-    <t>To use MoneyGram, you can complete the blue MoneyGram form or call MoneyGram to speak with a representative [1]. You pay the cashier or counter and receive a confirmation pin [1]. The payment must be manually applied to the account and it can take 48-72 hours for PA to process the payment [1].</t>
-  </si>
-  <si>
-    <t>The financial responsibility office for Kahului is located at Maui Mall Shopping Center, 70 East Kaahumanu Ave, Ste A-17, Kahului, HI 96732 [1].</t>
-  </si>
-  <si>
-    <t>The maximum total insurable earthquake value, on a per risk basis, is $500000 [5]. No exceptions can be made for more than $500000 [5].</t>
-  </si>
-  <si>
-    <t>The Hyper Care window for the EPC system is from 2/3 to 2/17 [1].</t>
-  </si>
-  <si>
-    <t>There is no information about the loss run requirement for state of ND in the search results.</t>
-  </si>
-  <si>
-    <t>I don't know.</t>
-  </si>
-  <si>
-    <t>In the state of Washington, verbal or written cancellation requests from the legal representative of the estate are acceptable [3].</t>
-  </si>
-  <si>
-    <t>The Service Assist program can assist with billing inquiries, digital enrollment, policy updates, and agency dashboard alerts [1]. Additionally, when a participating agent is unavailable, a Service Assist licensed representative team members may assist with inbound customer requests to quote or bind additional coverage on existing policies* and attempt to retain the customer when a cancellation request is received [1].</t>
-  </si>
-  <si>
-    <t>To process a trampoline in Agent 360, you need to select the "Yes" radio button for the trampoline question [1]. For service, you can access the Company Use page in ARS under the Residence Questions section [1]. For sales, you can select the "Yes" radio button under Property Information [1]. You then need to submit an endorsement [1].</t>
-  </si>
-  <si>
-    <t>If the lender does not have a loan number, they must submit a copy of the borrower's authorization form [1, 2, 4]. Title companies, dealerships, contract sellers, and title holders are not permitted to make any changes [1].</t>
-  </si>
-  <si>
-    <t>When a driver is excluded on a policy, coverage for bodily injury, loss or damages afforded by the policy will not apply while the excluded driver is operating any vehicle [1]. Excluded drivers are not rated on the policy [1]. The driver may be excluded at any time on the policy as long as a signed Driver Exclusion form is sent in [2]. Yes, if the signed Driver Exclusion form is received the same day [3]. The driver may be rated at any time on the policy as long as they are acceptable [4].</t>
-  </si>
-  <si>
-    <t>If a policy is being cancelled or non-renewed, there are outstanding underwriting or claims issues, or the policy has to be reinstated, you cannot retain the policy [1]. You can retain the policy if there has not been a loss [4]. If a claim requires follow-up work, a representative will be there every step of the way [3]. If the claim has been concluded and additional damage or injuries are identified, the claim will be reopened to determine if the policy provides coverage for the additional expense [3]. You can requote a cancelled policy after a one-year period [5].</t>
-  </si>
-  <si>
-    <t>You can find the ERM-14 form on the NCCI website by clicking here [1, 3]. The ERM-14 is used by all states except California [2].</t>
-  </si>
-  <si>
-    <t>Cancellation Scripts - Farmers Auto, Home, and Umbrella can be found at [1].</t>
-  </si>
-  <si>
-    <t>Scheduled rental mobile homes can be written in all states except Hawaii and Washington DC [1]. There is no limitation on how many units can be on a Scheduled Rental Manufactured Home policy, provided they are all in the same state and territory [4]. The minimum number of units for a Scheduled Mobile Home policy is five [4].</t>
-  </si>
-  <si>
-    <t>No, homeowners policies are not eligible for a residence address change [1]. The policy must be re-written [1]. The only exception is renters policies, which can be updated after the discovery period [2]. If you move out of state, the policy will also need to be re-written [5].</t>
-  </si>
-  <si>
-    <t>Yes, you can write rental properties in DF6 [1]. This policy covers rental properties, vacation and short-term rentals, and vacant/unoccupied properties [1].</t>
-  </si>
-  <si>
-    <t>An upload split occurs when a single sweep payment is made at the end of one term in excess of the amount needed to satisfy the policy and the remaining balance carries forward to the renewal [1].</t>
-  </si>
-  <si>
-    <t>If the customer references an existing quote, update that quote information [1]. If there was a cancelled policy, begin a new quote, following procedures for Re-quoting Cancelled policies [1].</t>
-  </si>
-  <si>
-    <t>If you receive a "No Connect" error message when ordering an MVR on a New Business policy, you should verify that all of the information is correct [1]. If the information is correct, you can try to re-order the reports at a later time [1].</t>
-  </si>
-  <si>
-    <t>Yes, a roof can have clawing shingles [1]. However, clawing shingles are considered unacceptable characteristics [1].</t>
-  </si>
-  <si>
-    <t>The GL code for Furniture and Fixture Installation is 95124 [2].</t>
+- Check amount</t>
+  </si>
+  <si>
+    <t>**To use the pay plan calculator for mid-term changes:**
+1. Open the Pay Plan Calculator.
+2. In the upper left corner, enter the following information:
+    - Policy effective date
+    - Premium
+    - New full term premium amount
+3. The updated pay plan billing amounts will automatically generate.
+4. When finished, clear all data.</t>
+  </si>
+  <si>
+    <t>**To request a stop pay on a refund check:**
+- Submit a cash form manually or through ForemostSTAR.
+- The 30-day rule only applies to checks issued with the correct information (including mailing address).</t>
+  </si>
+  <si>
+    <t>**Agents restricted from writing higher limits:**
+**California:**
+- 04036610461120047091404938490479074
+**Florida:**
+- 0991901094520409102710990068091024609107840942551094394509401900910400099134409907020991501
+**Pennsylvania:**
+- 371022637927373722409379344537229553722355</t>
+  </si>
+  <si>
+    <t>Sure, here's the reformatted answer:
+**How to update your mailing address on the same day as your policy cancellation:**
+1. Log in to your customer page and update your address. Make sure to use the same date as the cancellation date.
+2. Send an email to the Admin to notify them of the address change.
+3. The Resource Team will follow up in 2 days to cancel the policy.</t>
+  </si>
+  <si>
+    <t>An underwriter may need to review a policy if:
+- A driver has a major MVR violation.
+- A driver has more than 4 MVR points.
+- A driver has a suspended or revoked license.</t>
+  </si>
+  <si>
+    <t>**When to refer auto changes to a UW:**
+- Adding or changing an undescriptive trailer
+- Adding a vehicle to a Towing or ASR risk
+- Changing the liability limit on a tow truck or dump truck
+- Increasing the liability limit to $2,000,000 on vehicles over 45,000 GVW
+- Adding a high-value private passenger vehicle (over $100,000)
+- Adding or changing heavy &amp; extra heavy vehicles (over 45,000 GVW)
+- Adding Expanded Auto Classifications (e.g., tow trucks, logging, sand gravel dirt, contract carriers, etc.)</t>
+  </si>
+  <si>
+    <t>**To get an interpreter:**
+1. Call 1-800-946-7990 and enter the PIN #3018.
+2. Type in "interpreter" and select from the phone book.
+3. If there are phone issues connecting to the interpreter line, call 800-434-2076.</t>
+  </si>
+  <si>
+    <t>- The only Agent360-related states that require a written request to cancel are Georgia (GA) and Louisiana (LA).</t>
+  </si>
+  <si>
+    <t>There is no frontline advocate procedure for SR22.</t>
+  </si>
+  <si>
+    <t>**External Communications Process**
+1. All external requests should be directed to the External Communications team.
+2. The team will provide advice and guidance on whether to proceed with the request.
+3. This process ensures consistent communications and prevents the release of inaccurate or sensitive information.</t>
+  </si>
+  <si>
+    <t>Sure, here's the formatted answer:
+**How to Process a Cancellation Request**
+1. Ensure that all the information listed in the Cancellation procedure has been provided in the inbound correspondence from the insured.
+2. Verify that the name on the cancellation request matches the named insured on the policy.
+3. Set the effective date of cancellation as per the insured's request:
+    - Requested future date
+    - Date after the postmark (for letters)
+    - Day after the fax or email</t>
+  </si>
+  <si>
+    <t>**Here's the formatted answer:**
+**If a refund check is returned by the post office due to an undeliverable address:**
+1. The check will be delivered to the 21st Century Finance Department (DE).
+2. Finance will verify that the refund is still outstanding at the bank.
+3. If the company has placed a stop pay on the check, it will be shredded.
+4. If the refund check is still valid, the company will re-mail it to the updated address if there's a forwarding address on the envelope.
+5. If there's no forwarding address, the company will review comments to see if the address has been updated.
+6. If the company is unable to re-mail the refund check, it will be shredded.
+7. If the customer calls back to reissue a refund check, follow the "How to Void a Refund Check" procedures.</t>
+  </si>
+  <si>
+    <t>**When an insured requests to cancel their policy and the policy is in ARS:**
+- Use the reason "Insured's Request".
+- Do not use any other cancel reasons, as they should only be used by Underwriting.</t>
+  </si>
+  <si>
+    <t>**To complete an Auto Change Form in CLS, follow these steps:**
+1. Refer to the guide: Auto: Completing Change Form and Disposition in CLS.
+2. Follow the instructions provided in the guide to complete the form.</t>
+  </si>
+  <si>
+    <t>**Cell phone bills are not acceptable** to list a driver as out of household (OOH).
+**However, documentation is not required** if the driver is already marked out of household on the home policy.</t>
+  </si>
+  <si>
+    <t>To set up automatic payments:
+- Click "Set Up Autopay" from the policy card on your account homepage.
+- Choose a saved payment method from your "Customer Wallet" or add a new bank account or credit/debit card.</t>
+  </si>
+  <si>
+    <t>**Reinstatement Period for Non-Payment Cancellation:**
+- If a policy is canceled mid-term due to non-payment, the insured has up to 11 calendar days to reinstate it with a lapse.
+- For instance, if a policy is canceled on April 1, 2021, the insured has until April 11, 2021, to make payment for reinstatement with a lapse.</t>
+  </si>
+  <si>
+    <t>To access flood information from the Agency Dashboard:
+1. Click the Personal tab at the top of the Farmers® Dashboard.
+2. Close the Critical Notifications window by clicking the X.
+3. Access the Flood information.</t>
+  </si>
+  <si>
+    <t>Sure, here's the reformatted answer:
+**Document Workflow:**
+- Documents follow a specific workflow within the system.
+**Declining a Document:**
+- Customers have the option to decline signing a document.
+- Declining stops reminder and expiration emails from being sent.
+- Customers receive a confirmation email upon declining.</t>
+  </si>
+  <si>
+    <t>**Farmers Hawaii Underwriting Guidelines:**
+- Vehicle registration and residence of both insureds should be re-confirmed after six (6) months.
+- In court-ordered divorce situations where the spouse is legally required to provide insurance, we are obligated to quote and insure both parties if vehicles are co-titled.</t>
+  </si>
+  <si>
+    <t>To process an SR-21:
+1. Mail the Order of Security Requirements or Suspension notice to Farmers Insurance Hawaii, Claims Services, PO BOX 770, Honolulu, HI 96808.
+2. The SR-21 will be mailed to the Financial Responsibility section.
+3. A copy will be sent to the Named Insured.</t>
+  </si>
+  <si>
+    <t>To remove a vehicle from the policy:
+- Send a signed request to Service Operations or your agent.
+- If the caller is an agent, confirm they received a signed insured request to drop the vehicle.
+- If the caller is a customer, inform them that a signed request is needed.
+- Search the policy and select "Remove Total Loss Vehicle" to remove a total loss vehicle.
+- Log into BWProducers.com and select "Delete Vehicle" on the appropriate vehicle.
+- Verify that you have obtained the signed request over the phone or process the change yourself.
+Note: You cannot remove a vehicle from a canceled policy.</t>
+  </si>
+  <si>
+    <t>To remove a trampoline in ARS:
+1. Start a new change by clicking on the Action dropdown.
+2. Enter the effective date, what you are processing, and who is initiating the change.
+3. Reach out to Underwriting via Chat Assist.
+4. They will select Yes for the Trampoline.
+5. The customer will need to send proof that the trampoline is no longer there. Acceptable proof includes a picture of the dismantled trampoline or a picture of the yard showing that it is no longer there.
+6. Document the ARS Notes screen, summarizing the changes processed and the reason for the requested change.</t>
+  </si>
+  <si>
+    <t>To add sinkhole coverage to a Florida policy in PolicyCenter:
+1. Choose the Account or search by Account number.
+2. Select the policy number.
+3. Select Actions on the side bar.
+4. Click Change Policy.
+5. Enter the Effective Date and click Next.
+6. Select Coverages from the side bar.
+7. Select Optional Coverages.
+8. Under Other Optional Coverages, click Sinkhole.
+9. Click Quote to rate changes.
+10. Click Bind.
+For Change transactions, the customer will be required to submit a signed Sinkhole Coverage Request form. The agent may scan the document to PolicyCenter and request that the coverage be added.</t>
+  </si>
+  <si>
+    <t>**Here's the reformatted answer:**
+- If the IVR says "Begin New Quote," start a new quote.
+- Don't use or update an existing quote if the IVR advises starting a new one.
+- Always start a new quote in such cases.</t>
+  </si>
+  <si>
+    <t>To rush the processing of a refund:
+- Contact Service Operations for assistance.
+- Complete a Billing Action Needed (BAN) request to refund back to your credit card.
+- If extreme conditions exist, they will review if any other conditions exist which could help speed up the process.</t>
+  </si>
+  <si>
+    <t>**Here's the formatted answer:**
+If you encounter the pop-up message:
+- "Agent Credit Advice processing authority has been revoked. Contact your Service Center for assistance. (E84229) Are you sure?"
+Or the error message:
+- "Agent Identification number not on file" (E84178)
+It means you might not be able to process the ACA payment.</t>
+  </si>
+  <si>
+    <t>**Call Opening Steps:**
+1. Answer the phone with a branding statement.
+2. Provide your name.
+3. Choose the most comfortable opening for you.
+4. There is no required scripting.</t>
+  </si>
+  <si>
+    <t>To find out who canceled a policy:
+- Review the notes on the policy.
+- Review the cancel code.</t>
+  </si>
+  <si>
+    <t>There is not enough information provided to answer the query.</t>
+  </si>
+  <si>
+    <t>**To resolve the "FIRST DRIVER MUST BE NI" error:**
+1. Mark the PNI as "I".
+2. If you need help, contact Service Operations.</t>
+  </si>
+  <si>
+    <t>To add Sinkhole Coverage on a home policy in PolicyCenter, follow these steps:
+1. Choose the Account or Search by Account number.
+2. Select the policy number.
+3. Select "Actions" on the sidebar.
+4. Click "Change Policy."
+5. Enter the Effective Date and click "Next."
+6. Select "Coverages" from the sidebar.
+7. Select "Optional Coverages."
+8. Under "Other Optional Coverages," click "Sinkhole."
+9. Click on Quote to rate changes.
+10. Click Bind.</t>
+  </si>
+  <si>
+    <t>To cancel EFT on a policy:
+1. Cancel the policy.
+2. EFT will automatically terminate once the policy cancellation is processed.</t>
+  </si>
+  <si>
+    <t>**To find the policy jacket form number:**
+1. Retrieve the policy number in ForemostSTAR.
+2. Review the Coverage screen and scroll down to the bottom.
+3. Click on the Policy Forms link.
+**Alternatively:**
+1. Find the policy jacket form number on the Declarations Page of the policy.</t>
+  </si>
+  <si>
+    <t>**In the state of Washington:**
+- Verbal or written cancellation requests from the legal representative of the estate are acceptable.</t>
+  </si>
+  <si>
+    <t>A Certificate of Title Surety, also known as a bonded title, can be used instead of a standard vehicle title to:
+- Register a car with the Department of Motor Vehicles (DMV)
+- Buy insurance for the car
+- Sell the car</t>
+  </si>
+  <si>
+    <t>**Steps to cancel a policy:**
+1. Log into www.BWProducers.com.
+2. Select "Manage my Customers" &gt; "Policy Search" &gt; "Search by Policy".
+3. Input the policy number and select "Cancel Policy".
+**Alternatively, you can:**
+- Contact Service Operations for assistance.</t>
+  </si>
+  <si>
+    <t>**Here's the reformatted answer:**
+- Archived claims are not accessible through BW Producers.
+- For more information, contact the Claims Department.</t>
+  </si>
+  <si>
+    <t>Sure, here's the formatted answer:
+When adding a vehicle to a policy, the underwriter will consider the following:
+- How many drivers are in the household?
+- Who operates the vehicles listed?
+- How the vehicles are used?
+- How the vehicles are titled/registered?
+- Whether all vehicles are principally garaged at the residence?
+If the risk becomes unacceptable, the underwriter will not add the vehicle or operator to the policy.</t>
+  </si>
+  <si>
+    <t>**Specialty Dwelling Policies:**
+**In FOCUS (PPPR):**
+1. Type "IN" in TRAN CODE and the policy number in NUMBER.
+2. Press enter.
+3. Type "COV" in the COMMAND line and press enter.
+4. The total policy premium will display in the upper right corner of the screen, directly below PRODUCER.
+**In ForemostSTAR (P2N):**
+1. Enter the ten-digit policy number in the "Retrieve Quote or Policy" tab.
+2. Click on the "Billing" tab.
+3. Scroll down the page to "Billing Information."
+4. The total policy premium will be located next to "Total Policy Premium (Excludes Taxes and Fees)."
+**Casualty Policies:**
+**In ForemostSTAR:**
+1. Enter the ten-digit policy number in the "Retrieve Quote or Policy" tab.
+2. Click on the "Coverages" tab.
+3. The "Total 1 Year Premium" will show in the bottom right-hand corner.</t>
+  </si>
+  <si>
+    <t>Sure, here's the formatted answer:
+**Reasons why the registered owner of your vehicle may not be someone in your household:**
+- If the vehicle is leased, the registered owner may be the leasing company.
+- If the registered owner is listed as a RO type of additional insured, they will show as the Registered owner on ID cards.</t>
+  </si>
+  <si>
+    <t>**Policy Backdating Rules:**
+- Agents can backdate a New Business policy up to 5 calendar days.
+- If the policy date change is more than 5 days, the Underwriter must handle it.
+- Underwriters can backdate a quote/policy more than 5 days on an exception basis.</t>
+  </si>
+  <si>
+    <t>To order an inspection at Renewal:
+1. Go to the Risk Analysis page and click on the inspections tab.
+2. Scroll down to the Order Inspection section and check the box next to the desired inspection type.
+3. Select Order Inspection, Quote, and Issue Policy.</t>
+  </si>
+  <si>
+    <t>**To delete a vehicle from the policy:**
+1. Log into BWProducers.com and select "Search by Policy."
+2. Enter the policy number and click "Search."
+3. Select "Endorse Policy" and enter the effective date.
+4. Select "Delete Vehicle" on the appropriate vehicle.
+5. Sign the request and send it to Service Operations or your agent.
+**To remove a total loss vehicle:**
+1. Search the policy and select "Remove Total Loss Vehicle."
+2. Verify that the effective date is one day after the loss.
+**Note:** You can't make policy changes if the policy is canceled.</t>
+  </si>
+  <si>
+    <t>Here's the formatted answer:
+**When handling CSG calls, review these four areas for accuracy:**
+1. Check if the quote is from the same day.
+2. If not, ask the customer if there have been any changes since the quote was completed.
+3. If no changes are made, provide different payment options and attempt to bind.</t>
+  </si>
+  <si>
+    <t>**Steps to File a Dispute with Farmers Hawaii:**
+1. File a dispute with Lexis Nexis.
+2. Lexis Nexis will send a CLUE dispute form to the reporting insurance carrier.
+3. The insurance carrier will investigate the claim to determine if the dispute is valid.
+4. The insurance carrier will send a response (via fax) to Lexis Nexis to advise them if the dispute is valid or not.</t>
+  </si>
+  <si>
+    <t>**Steps to take if the SR doesn't contain a policy or account number:**
+1. Search the returned document for any insured information, such as a valid policy, account number, or address.
+2. Use Agency Dashboard to research for policy information.
+3. If you find any insured information, send an email to the agent of record.</t>
+  </si>
+  <si>
+    <t>Sure, here's the formatted answer:
+**Can a surviving spouse cancel a life insurance policy?**
+Yes, a surviving spouse can request to cancel a policy if:
+- There's no executor or trustee with the legal authority to act on behalf of the deceased First Named Insured.
+- No other person or interest is named on the title.</t>
+  </si>
+  <si>
+    <t>Sure, here's the reformatted answer:
+**How to obtain a copy of the autopay authorization form:**
+1. Go to the Direct Bill tab.
+2. Look for the "Billing Documents" section.
+3. If there's a pending authorization for a paper EFT authorization form, you'll find the form there.
+**Note:** Once the trigger to receive the form is available, the document will no longer be accessible.</t>
+  </si>
+  <si>
+    <t>**To cancel a policy in Property to NextSTAR:**
+1. Go to the Policy Summary tab and click Manage/Change Policy.
+2. In the drop-down menu, select Cancel Policy and click Go.
+3. Enter the effective date of the change, who is canceling, and the reason for canceling.
+4. Click Continue.
+5. The Estimated Disbursement or Amount Due will be listed.
+6. Complete the cancellation by clicking the Issue Cancellation button.
+**Cancellation Documents will be mailed in 1-2 business days to the insured.**</t>
+  </si>
+  <si>
+    <t>**If you are unable to reach the caller:**
+1. Leave a voicemail.
+2. Include the SR number in the voicemail.
+3. This gives the caller the opportunity to return the call.</t>
+  </si>
+  <si>
+    <t>To update your driver's years of experience:
+1. Log in to bwproducers.com or iaproducers.com.</t>
+  </si>
+  <si>
+    <t>**If you receive a call from an Uber driver:**
+- Transfer them to the TNC Claims Department at 877-327-6649.</t>
+  </si>
+  <si>
+    <t>Here's the formatted answer:
+- If the envelope has a forwarding address, update the mailing address.
+- If the return reason is mail refused, no action is needed.
+- If the address is updated, you may close the Underwriting memo and/or lift the non-renewal without receiving proof of residence.</t>
+  </si>
+  <si>
+    <t>To backdate a cancellation for a property or casualty policy more than 30 days, submit the following documents:
+1. A valid cancellation request including:
+   - The insured's name
+   - The policy number(s) to be canceled
+   - The requested effective date of cancellation
+   - The signature of either the Primary Named Insured (PNI) or the Secondary Named Insured (SNI)
+2. Property: Seller's Statement or Closing Disclosure including:
+   - The Named Insured as the seller
+   - Sale date
+   - Location address or property description matching the location address or unit on the Foremost® policy
+   - Buyer's name
+3. Insured's Lease Expired document or Notice to Vacate:
+   - Documentation such as correspondence from the landlord or management company confirming a termination of contract
+Other acceptable documents include:
+- A bill of sale
+- Proof of another policy on the same property
+- Death certificate
+- Proof of a total loss</t>
+  </si>
+  <si>
+    <t>**To add a Loss Payee to a casualty policy:**
+1. Click "Search".
+2. Click the "Unit" tab (e.g. Motorcycle, Off Road Vehicle, Watercraft).
+3. Click on the unit you are making the change to.
+4. Scroll down to the "Additional Interest" field.
+5. Click "Change".
+6. Input the Effective date of the change.
+7. Make the desired changes.</t>
+  </si>
+  <si>
+    <t>**Specialty Dwelling Product Codes**
+- Specialty Dwelling product codes are 3-digit codes.</t>
+  </si>
+  <si>
+    <t>To process MailScan:
+1. Press "Open" and select a document from the CONTENT folder.
+2. The document image will display in MailScan.
+3. Select the Line of Business and Transaction Type.
+ - The Transaction Type options match the Easylink Queues.</t>
+  </si>
+  <si>
+    <t>**Here's the formatted answer:**
+**Effective January 1st, 2021, insureds in Louisiana will need to:**
+1. Submit a written request to cancel their policy.
+2. Call your agent to cancel your policy.
+3. Process the cancellation online through the ForemostSTAR website.</t>
+  </si>
+  <si>
+    <t>**Verbal cancellation scripts:**
+-  You can find verbal cancellation scripts at [link].
+**Requests within the first 60 days of a new business policy in Florida:**
+- Review state specifics [link].
+**If the requested cancel effective date is in the past:**
+- A written request is required along with the appropriate supporting documents [link].</t>
+  </si>
+  <si>
+    <t>Sure, here's the reformatted answer:
+**How to Refer a Request to Another Brand:**
+1. Create a Service Request (SR) in the Work Point Pro system.
+2. Refer the SR to the Bristol West queue BW-Endorsement.
+3. Exit the SR by clicking the 'X' on the SR.</t>
+  </si>
+  <si>
+    <t>Sure, here's the formatted answer:
+**Proof of Insurance Requirements:**
+- State facilities generally don't accept electronic ID cards as proof of insurance.
+- ID cards must be printed on state-approved fraud-resistant paper.
+- Faxed or emailed ID cards are not considered valid proof of insurance.</t>
+  </si>
+  <si>
+    <t>Sure, here's the reformatted answer:
+**Extensions on DNOCs**
+- Extensions on DNOCs may be available.
+- When considering a request for an extension, consider the customer's previous payment history in the last 12 months.</t>
+  </si>
+  <si>
+    <t>**Proof of Insurance Requirements:**
+- State facilities generally do not accept electronic ID cards.
+- ID cards must be printed on state-approved fraud-resistant paper.
+- Faxed or emailed ID cards are not valid proof of insurance.
+**Courtesy Services:**
+- As a courtesy, the company may fax or mail ID cards upon customer request.</t>
+  </si>
+  <si>
+    <t>Sure, here's the reformatted answer:
+**Texas Loss Run Requests**
+- Texas does have loss run requests.
+- To release loss runs, you'll need a signed and dated request on insured letterhead stating you can release them to your agency.
+- The insured or current agent of record can also request loss runs directly from you.</t>
+  </si>
+  <si>
+    <t>**Park models:**
+- Trailers built on a single chassis mounted on wheels.
+- Gross trailer area not exceeding 400 square feet.
+- Designed for long-term or permanent placement at a destination where an RV or mobile home is allowed.</t>
+  </si>
+  <si>
+    <t>Sure, here's the formatted answer:
+**Backdating New Business Quotes**
+- You can backdate a New Business Quote up to 30 days without additional approval.
+- For backdating past 30 days, reach out to chat assist.
+- Backdating is only allowed in cases of company error, not customer or agent error.
+- If the customer requests a backdate transaction that decreases the premium and the delay is due to a late request from the customer (not company error), we'll backdate the request 90 days unless proof supporting an earlier date is provided.</t>
+  </si>
+  <si>
+    <t>**To cancel a policy, the person making the request must be one of the following:**
+- Primary Named Insured
+- Secondary Named Insured
+- Spouse of Named Insured
+**For a retroactive cancellation more than 60 days before the request date, you'll need:**
+- A signed request from the insured
+- Acceptable supporting documentation</t>
+  </si>
+  <si>
+    <t>**How to Process a Refund Void Stop Pay Request**
+1. Open a Word document and title it with the current date, followed by "Void Stop" and your initials.
+2. Review the diary comments and void stop pay request.
+ - Ensure that at least one comment states the agent or named insured was advised not to attempt to cash the original check. If not, the request cannot be processed.
+3. Process the void via AS400.
+ - Take a screenshot and copy it to the Word document before finalizing the AS400 void.
+4. Reapply the same-day refund to the policy.
+ - The Diary Comment policy should state: "Processed Void Stop Pay request to Reapply refund to policy."
+5. Save the Word document and screenshots to the shared Z drive: Operations/Accounting Services/Accounting Services/Void check_Stop pay/2Void Stop Pays/Year Void Stop Pays/Month Void Stops.
+**Additional Information**
+- If one of the individuals on the refund check is now deceased, you can stop payment and reissue a refund check payable to both the living person and "The Estate of" the deceased person.</t>
+  </si>
+  <si>
+    <t>Certainly! Here's the reformatted answer:
+Class codes categorize customers based on similar characteristics, such as vehicle usage. This helps in grouping customers into specific classes or categories.</t>
+  </si>
+  <si>
+    <t>Sure, here's the reformatted answer:
+**Replacement Bill Request Process:**
+1. A replacement bill can only be requested for a canceled policy if money is still owed.
+2. An earned premium bill (655 or 656) must have been issued.</t>
+  </si>
+  <si>
+    <t>Certainly! Here's the reformatted answer:
+**Does the FWS Retention team support A360?**
+- Yes, the FWS Retention team supports A360.</t>
+  </si>
+  <si>
+    <t>Sure, here's the formatted answer:
+- If a payment is returned on renewal, it can be replaced along with an NSF fee to renew the policy with a lapse within 30 days.
+- The insured will need to re-enroll with updated account or card information.</t>
+  </si>
+  <si>
+    <t>**Service Advocates cannot combine multiple submissions into one.**
+- Service Advocates cannot combine multiple submissions emailed by the agent for Submit For Approval.</t>
+  </si>
+  <si>
+    <t>If you only have a claim number, contact Service Operations for help.</t>
+  </si>
+  <si>
+    <t>- The billing code for a renewal policy is 020.</t>
+  </si>
+  <si>
+    <t>**To convert a file to PDF:**
+1. Right-click anywhere on the page of the opened BNB and select "Print."
+2. Ensure the "Destination" is set to "Save as PDF" and click "Save."
+3. Choose where you want to save the PDF file on your computer and click "Save" to complete the conversion.
+**To merge two PDFs into one using Adobe:**
+**Method 1:**
+1. Open Adobe Acrobat.
+2. Navigate to "Tools" under the menu bar.
+3. Click "Combine Files."
+4. Drag and drop the PDFs to be merged into the "Combine Files" pop-up window.
+**Method 2:**
+1. Open the first document to be combined.
+2. Navigate to "Tools" under the menu bar.
+3. Click "Organize Pages."
+4. Click "Insert."
+5. Click "From File."
+6. Use the browser to find the document to be combined.
+7. Click "Open."
+8. Use the "Insert Pages" pop-up to select where the PDF will be added into the original document.
+9. Click "OK."
+10. Save the merged document.</t>
+  </si>
+  <si>
+    <t>- Yes, you can contact customers without PEWC during renewal.</t>
+  </si>
+  <si>
+    <t>**To access flood information from ADE:**
+1. Click the "Flood" tab on the lower section of the screen.
+2. Choose from the links provided to obtain the needed information.</t>
+  </si>
+  <si>
+    <t>To refresh a pivot table:
+1. Go to the Status tab.
+2. Click within the pivot table.
+3. Go to Analyze.
+4. Select Change Data Source.
+5. Highlight starting in A1 Column U, and down to the last row with data.
+6. Hit Refresh.</t>
+  </si>
+  <si>
+    <t>**Retention ARS Transfer Process**
+1. Use the provided Retention transfer number.
+2. For GPC 017/Mercer, send calls to Mercer at 800-999-6642.
+3. For internal calls, use the internal phone directory via SRM.
+4. All calls to this team should be a warm transfer to maximize customer experience.
+5. If the customer declines the transfer, process their cancellation request.
+6. If the policy is ineligible for Retention Team support, assist the customer or refer them back to their agent.
+7. Sales Consultants may state DOB and zip code without asking for reconfirmation.
+8. If the customer is warm transferred to Retention by Customer Service, the Retention Agent doesn't need to verify or pass security.</t>
+  </si>
+  <si>
+    <t>**Hawaii Renewal Premiums Issue**
+- There's an issue with Hawaii renewal premiums.
+- The company is working to correct the error.
+- Revised policy documents will be sent showing the correct premium.</t>
+  </si>
+  <si>
+    <t>**Documents required for CA Mileage after renewal:**
+- Request must be in writing.
+- Completed Annual Mileage Survey document.
+- 2 service documents from a 3rd party Service Center that timestamp the mileage difference from the prior term to the renewal.
+  - Examples: Oil change receipts, tire rotation services, or any car repair document that captures mileage on the vehicle.</t>
+  </si>
+  <si>
+    <t>The following folders in the Content folder need to be worked on as part of the MailScan:
+- 2018
+- Backend Mail
+- HI_1stop_Mailscan_doc</t>
+  </si>
+  <si>
+    <t>**Graduated Licensing Rules:**
+- A licensed parent, legal guardian, or licensed driver over age 21 must accompany the youthful driver at all times.
+- A provisional license driver may not drive between 11 pm and 5 am unless accompanied by a parent or guardian:
+ - Who is licensed to drive the same type of motor vehicle
+ - Who is seated in the passenger seat beside the driver</t>
+  </si>
+  <si>
+    <t>**If underwriting sent a notice to the insured but hasn't issued a non-renewal yet, and that notice has been satisfied, you would:**
+- Recycle the follow-up comment(s) from Underwriting.</t>
+  </si>
+  <si>
+    <t>Here's the reformatted answer:
+- If the caller transfers the phone to someone else in your office, inform the new person that the call is being recorded.
+- You can proceed with the call if the original caller completes the caller verification process.</t>
+  </si>
+  <si>
+    <t>Sure, here's the reformatted answer:
+- You can join the Hawaii Education Association (HEA) even if you're already a member of the Hawaii State Teachers Association (HSTA).</t>
+  </si>
+  <si>
+    <t>To refer a request to another brand:
+- Contact Service Operations for assistance.</t>
+  </si>
+  <si>
+    <t>To order a renewal inspection:
+1. Select the Risk Analysis page and click on the inspections tab.
+2. Scroll to the bottom of the page and place a check mark in the box next to the desired inspection type.
+3. Select Order Inspection, Quote, and Issue Policy.</t>
+  </si>
+  <si>
+    <t>**If the CLUE report won't run at a new business, try these steps:**
+1. Upload the policy as is, and the reports will be run after the upload.
+2. Verify all customer information is correct, including:
+    - Date of birth (DOB)
+    - Driver's license (DL)
+    - Spelling of name</t>
+  </si>
+  <si>
+    <t>**Theft Coverage on a Watercraft Policy**
+- Theft coverage is included on a watercraft policy if the policy has Hull coverage.
+- If the policy is liability only and does not have Hull coverage, there is no coverage for theft.</t>
+  </si>
+  <si>
+    <t>To look up a policy, you can use either the FOCUS or ForemostSTAR system.</t>
+  </si>
+  <si>
+    <t>**If you disagree with the information reported by Farmers Hawaii:**
+1. Contact Farmers Hawaii to request a correction.
+**If you file a dispute with Lexis Nexis:**
+1. Lexis Nexis will send a CLUE dispute form to the reporting insurance carrier.
+2. The reporting insurance carrier will investigate the claim.</t>
+  </si>
+  <si>
+    <t>**To view transaction history in PolicyCenter:**
+1. Click **Policy Transactions** from the left-hand menu.
+2. If needed, change the **Status** drop-down from **Bound** to **All**.
+3. Locate the desired transaction and click on the hyperlinked transaction number.
+**To view transaction history in Express:**
+1. From the **Summary** tab, click **Household History**.
+2. Select the desired bullet and click **View Change Summary**.
+3. Use numbered page links to access earlier dates.
+4. For additional details, click **Long View** on the Change Summary.
+5. To view Cascaded Versions, click the plus (+) on the Change Summary to expand.</t>
+  </si>
+  <si>
+    <t>**To reach an interpreter:**
+- Call 1-800-946-7990 for assistance in all languages.
+- For Spanish interpreters, use the direct dial number 1-800-434-2076.
+**Note:** It's recommended to note the use of language services to aid in future customer interactions.
+**For further assistance:**
+- Contact Service Operations.</t>
+  </si>
+  <si>
+    <t>To add a motorcycle model not listed in the system to a quote, you can contact Casualty Underwriting with the following vehicle information:
+- Vehicle Type
+- Vehicle Year
+- Make/Manufacturer
+- Model Name
+- Cubic Centimeters (CCs) if applicable
+- Vehicle Identification Number (VIN)</t>
+  </si>
+  <si>
+    <t>**How to Access an Interpreter or Interpretation Services:**
+1. Call 1-800-946-7990.
+2. Select the required interpretation language.
+3. If communication breaks down, politely interrupt the interpreter and ask them to redirect questions back to you.</t>
+  </si>
+  <si>
+    <t>To add the Multi-Car discount:
+1. In Policy Endorse, change the Multi-State/Car Indicator to "Yes."
+2. Click "Rate/Submit."</t>
+  </si>
+  <si>
+    <t>Sure, here's the reformatted answer:
+**Verbal Policy Cancellation**
+- In most states (except Louisiana and Delaware), a first and second named insured or an individual with control can verbally cancel an insurance policy.
+- Verbal cancellations are not allowed in Louisiana and Delaware.</t>
+  </si>
+  <si>
+    <t>**To fix the Policy EFT Error: Missing required details:**
+1. Launch the Rate tab.
+2. Select **No** from the **Select EFT for Future Installments** drop-down menu.
+3. Click **Recalculate**.
+4. Select **EFT Yes-Debit Card/Checking/Savings** from the **Select EFT for Future Installments** drop-down menu.
+5. Click **Recalculate**.
+6. Navigate to the Application tab to input the payment information.
+7. Click **Save**.</t>
+  </si>
+  <si>
+    <t>**Expired Credit Card Letters**
+- Expired credit card letters are automatically sent to customers with autopay set up for their credit card.
+- The letters notify customers that their credit card is about to expire.
+- If a customer receives a letter and questions why, apologize and advise them to disregard the letter.</t>
+  </si>
+  <si>
+    <t>To check the status of a policy:
+1. Use the Search/Change Quote or Policy option in ForemostSTAR.
+2. The status will be displayed in the left-hand Summary column.
+3. The status will be either to the right of or just under the policy number.</t>
+  </si>
+  <si>
+    <t>Here's the formatted answer:
+**CU 22 40 12 04 Form and General Liability**
+- When completing the CU 22 40 12 04 Form and adding General Liability, there are several examples of wording to use:
+  - "Add: underlying policy &lt;policy number&gt;"
+  - "Change: umbrella liability limit to $(show limit)"</t>
+  </si>
+  <si>
+    <t>MetCheck is a refund system used by Agent360.
+Here's a breakdown of the key points:
+- MetCheck is a refund system.
+- It is used by Agent360.</t>
+  </si>
+  <si>
+    <t>**Acceptable Document for Out of Household (OOH) Drivers**
+- A Social Security disability check stub is an acceptable document for Out of Household (OOH) drivers.</t>
+  </si>
+  <si>
+    <t>If a caller requests a copy of the Farmers Do Not Call (DNC) Policy for Consumers, follow these steps to mail them a copy:</t>
+  </si>
+  <si>
+    <t>**How to Handle a Request for New Business**
+1. Verify if the customer is inquiring about a policy for themselves.
+2. Confirm the state they need a quote written in.
+3. If the customer insists on immediate new business, transfer them to Direct Sales using the SRM directory.
+4. If the agency name only ends with “C/O FX Insurance Agency”, then this is a Fulfillment Agent and NOT a house account.</t>
+  </si>
+  <si>
+    <t>To check the status of a property policy in ForemostSTAR:
+1. Click on the Search/Change Quote or Policy tab.
+2. In the Quote/Policy Number field, type the policy number and hit Enter.
+3. The status, Active or Cancelled, will show in the left-hand Summary column.</t>
+  </si>
+  <si>
+    <t>Sure, here's the formatted answer:
+**Vehicles registered to a business are ineligible for use unless all of the following conditions are met:**
+- The vehicle must be a private passenger vehicle (mini vans are considered a PPV).
+- The vehicle is used solely as a personal use vehicle by the prospective policyholder.
+- The business is a professional business such as a doctor, lawyer, accountant, engineer, or architect.
+- There is no transportation of employees, clients, goods, or materials.
+- Only one such vehicle registered in the name of a business can be listed.
+**If eligible:**
+- Rate the vehicle for business use 100%.
+- The owner of the business should be listed as a policyholder.</t>
+  </si>
+  <si>
+    <t>Sure, here's the reformatted answer:
+**How to transfer an IL policy to the retention team:**
+1. Contact the retention team to initiate the transfer process.
+2. Provide the necessary policy information, such as the policy number and the insured's name.
+3. Follow the instructions provided by the retention team to complete the transfer.</t>
+  </si>
+  <si>
+    <t>There are many reasons why you may get a refund when your policy is active:
+- You may have overpaid your premium.
+- You may have canceled your policy before the end of the term.
+- You may have been eligible for a discount that was not applied to your policy.
+- You may have filed a claim that was denied or only partially paid.
+- You may have been the victim of fraud or identity theft.</t>
+  </si>
+  <si>
+    <t>Sure, here's the reformatted answer:
+**To determine if an ordinance or law is covered:**
+1. Check the applicable state program guide.
+2. Access the quote or policy from ForemostSTAR.
+3. Go to the Coverage page and click on Policy Forms at the bottom right.
+4. Obtain the endorsement number for the replacement cost roof coverage.
+5. Locate the endorsement in the supply source to verify if it includes Ordinance or law.</t>
+  </si>
+  <si>
+    <t>**Policyholder EFT Error: Missing required details**
+This error message appears when you click save after entering payment information on the Application tab.
+**To resolve this error:**
+1. Expand the vehicle(s) to show all vehicle information.
+2. Select the town name for the highlighted vehicle(s).
+**Alternatively:**
+Contact Service Operations for assistance.</t>
+  </si>
+  <si>
+    <t>**To set up the Document Retention Stationery:**
+1. Set up the table below as an Outlook stationery.
+2. In the "To" field, enter "Walter Mail."
+3. In the "Subject" line, enter "Retention of Document."
+4. Once saved, open the stationery.
+5. Complete the information in the table.
+6. Attach the document to the Outlook email and send.</t>
+  </si>
+  <si>
+    <t>Billing code 110 refers to a lockbox payment or a check-only payment received through electronic transmission.</t>
+  </si>
+  <si>
+    <t>Sure, here's the reformatted answer:
+- Pennsylvania is an "auto long" state.</t>
+  </si>
+  <si>
+    <t>**To revoke PEWC:**
+1. Send an email to USW_21ST_Back_Office.
+2. View PSP to validate the PEWC is currently active.</t>
+  </si>
+  <si>
+    <t>Sure, here's the formatted answer:
+**To cancel your Delaware policy verbally:**
+1. Contact Foremost within 30 days of the date you want the cancellation to take effect.
+2. Complete the Delaware Cancellation Affidavit (Form 8146).
+3. Return the completed form to Foremost.</t>
+  </si>
+  <si>
+    <t>Sure, here's the reformatted answer:
+**Advanced Purchase Discount**
+- Available in Mexico.
+- Discount applies when:
+  - Policy uploaded at least two days before the effective date.
+  - Insured has prior insurance with no lapse in coverage.
+- Bristol West as prior insurance does not qualify.</t>
+  </si>
+  <si>
+    <t>- The merit rating adjustment is a 5% credit for 0 lost-time claims.
+- The merit rating is an adjustment to the insured's premium based on the number of lost-time claims over the last three policy years.
+- The merit rating is similar to the experience rating, but for risks that are too small to qualify for experience rating.</t>
+  </si>
+  <si>
+    <t>**Service Assist Program:**
+- Opt-in, fee-based subscription to assist Farmers® agents with specific service transactions.
+**Services Provided:**
+- Billing inquiries.
+- Digital enrollment.
+- Policy updates.
+- Agency Dashboard alerts.</t>
+  </si>
+  <si>
+    <t>**To copy a submission in PolicyCenter:**
+1. Click the **Actions** button and select **Copy Submission**.
+2. PolicyCenter will redirect you to the copy of the submission.
+**To copy data from a submission or policy to a new submission:**
+1. Start a new submission in the same account.
+2. Answer the **Credit and Privacy Questions**.
+3. Click the **Actions** button and select **Copy Data**.
+4. Change the **Search For** drop-down to the desired criteria.
+5. Enter the policy transaction number to copy and click **Search**.</t>
+  </si>
+  <si>
+    <t>Sure, here's the reformatted answer:
+**Multi-car discount exceptions:**
+- Doesn't apply if another vehicle in the household is insured elsewhere.
+- Doesn't apply to company-supplied private passenger vehicles, pickup trucks, or vans.</t>
+  </si>
+  <si>
+    <t>A seismic event is classified as an aftershock or other quake related to the same earthquake if it occurs:
+- Within 15 days or 360 hours after the original earthquake.</t>
+  </si>
+  <si>
+    <t>**How to start a chat on BWProducers:**
+1. Log in to BWProducers.
+2. Hover over "Manage my Customers" and select "Policy Search."
+3. Choose either "Search by Name" or "Search by Policy."
+4. Enter the insured's name or policy number and click "Search."
+5. Select the drop-down menu next to "Policy Summary" and click "Chat Now."
+6. Enter your policy question and click "Launch Chat."
+**Alternatively, you can start a chat from the home page or search page of BWProducers:**
+1. Log in to BWProducers.
+2. Click on the "Chat Now" button on the home page or search page.
+3. Enter your policy question and click "Launch Chat."
+**Note:** It is recommended to open the policy first so the information transfers to Service Operations.</t>
+  </si>
+  <si>
+    <t>Sure, here's the reformatted answer:
+**When do you need an ERM-14 form?**
+- There is a change in ownership.
+- There is a change in the Federal Employer Identification Number (FEIN).
+- There is a change in the entity type.
+- There is a change in the Other Named Insured with common majority ownership and is listed on a Workers' Compensation policy.</t>
+  </si>
+  <si>
+    <t>Sure, here's the formatted answer:
+**An insured may request policy cancellation at any time due to:**
+- Purchase of coverage with another company
+- Sale of the property covered by the policy
+- Move to another state
+- Death of the insured
+- No further need for insurance</t>
+  </si>
+  <si>
+    <t>To check if a policy has ordinance or law coverage:
+- Go to the Coverage page.
+- Click on Policy Forms at the bottom right.
+- Get the endorsement number for the replacement cost roof coverage.
+- Locate the endorsement in the supply source to verify if it includes Ordinance or Law.</t>
+  </si>
+  <si>
+    <t>To link relevant articles to the SR:
+1. Locate an article through the global search or favorites.
+2. Click on "Link to SR."
+3. Alternatively, click on the smart link for the article used to service the call or chat and link that article to the SR.</t>
+  </si>
+  <si>
+    <t>Sure, here's the reformatted answer:
+**Documents that can be printed on the Farmers Specialty Auto website:**
+- Renewal notices
+- Invoices
+- Pre-cancel notices
+- Policy contracts
+**Documents that cannot be printed:**
+- ID cards</t>
+  </si>
+  <si>
+    <t>Sure, here's the reformatted answer:
+- Michigan benefits qualify for QHC in Virginia.</t>
+  </si>
+  <si>
+    <t>There is no specific wording for deleting General Liability on the CU 22 40 12 04 Form.
+Here are some tips for formatting the answer:
+- Remove all citations, such as [1], [1, 3].
+- Break the answer down into manageable steps or points.
+- Ensure the answer is clear and easy to read.</t>
+  </si>
+  <si>
+    <t>Sure, here's the reformatted answer:
+**To get an interpreter:**
+1. Call 1-800-946-7990.
+2. Enter the PIN for the language you need.
+ - For FIA/FACT policies, enter 3018.
+3. Alternatively, type in "interpreter" and select from the phone book.
+**If there are phone issues connecting to the interpreter line:**
+1. Call 800-434-2076.</t>
+  </si>
+  <si>
+    <t>Sure, here's the reformatted answer:
+**How to Backdate Coverage**
+- If you were involved in an accident or have a pending claim, you can request an exception to backdate coverage, reinstate the policy, or amend the effective date. Contact your claims adjuster for assistance.
+- If you have a claim filed with the company, no proof is required.
+- If you haven't paid towards renewal, you can cancel the policy back to the effective date without proof.
+- If you have received other coverage, you can verbally backdate 30 days without proof.
+- If the requested endorsement results in a decrease in premium, the change date should be used.
+- If the agent states that the coverage was added in error, the backdating of coverage can be reviewed.</t>
+  </si>
+  <si>
+    <t>The Retention Team is a department with licensed representatives who review policies to retain business. These reviews may include:
+- Discussing coverages
+- Discussing discounts
+- Discussing policy rating details that impact pricing
+The Retention Team is available Monday through Friday, 8:00 a.m. to 7:00 p.m. Eastern Time.</t>
+  </si>
+  <si>
+    <t>Sure, here's the reformatted answer:
+**Loss Payee Information:**
+- A loss payee can only release information about the policy that is not considered non-public, personal information (NPPI).
+- This includes information such as date of birth, social security number, etc.
+- A loss payee can also add, replace, or delete loss payee information.
+- They can also cancel a policy due to foreclosure or repossession, but only by fax or mail.</t>
+  </si>
+  <si>
+    <t>- Contact the producer IT department for custom service.
+- Call 1-800-531-5981.</t>
+  </si>
+  <si>
+    <t>A GPC code is a three-digit code specific to your account. It identifies the company or employer you're affiliated with. This code is used in the Group Eligibility File to access your information as an employee.</t>
+  </si>
+  <si>
+    <t>Sure, here's the reformatted answer:
+**To contact Service Operations through chat:**
+1. Log in to BWProducers.
+2. Hover over "Manage my Customers" and select "Policy Search."
+3. Search by Name or Policy, and enter the insured's Name or Policy Number.
+4. Select the policy and click the "Chat Now" button.
+**Alternatively, you can start a chat from the home page or search page of BWProducers:**
+1. Open the policy first so the information transfers to Service Operations.</t>
+  </si>
+  <si>
+    <t>- Ensure all calls to the retention team are warm transfers to enhance customer experience.</t>
+  </si>
+  <si>
+    <t>**If a vehicle use is ineligible, follow these steps:**
+1. Do not add the vehicle.
+2. Do not provide ID cards.
+3. Enter a "flagged" comment.
+4. Document "DO NOT ADD."</t>
+  </si>
+  <si>
+    <t>- Dovetail is a policy handled by the CSC team.
+- IA subagents don't have access to any Farmers systems.</t>
+  </si>
+  <si>
+    <t>**Automatic Refund**
+- An automatic refund is issued when the amount paid is more than the amount owed.
+- The refund (also called a disbursement) is sent within 10 business days of being available.
+- It occurs due to an overpayment of premium or a credit related to a policy transaction.</t>
+  </si>
+  <si>
+    <t>**In Florida, there's a $10 fee for:**
+- Sending paper documents instead of receiving electronic documents.
+- Not using the Go Paperless program.</t>
+  </si>
+  <si>
+    <t>To view your billing history on Bristolwest.com:
+1. Click on the Billing Information link on the Customer Home Screen.
+2. On the Billing Information page, you can view:
+    - Payment History
+    - Failed Payments
+    - Remaining Payments Waives</t>
+  </si>
+  <si>
+    <t>Sure, here's the formatted answer:
+**Proof of Insurance Requirements:**
+- State facilities generally don't accept electronic ID cards as proof of insurance.
+- ID cards must be printed on state-approved fraud-resistant paper.
+- Faxed or emailed ID cards are not valid proof of insurance.
+**Courtesy Services:**
+- As a courtesy, the company may fax or mail ID cards upon customer request.</t>
+  </si>
+  <si>
+    <t>**How to Rush a Refund on a Checking Account**
+1. Collect a copy of the back records showing payment has cleared, including a running balance.
+2. Complete a Billing Action Needed form to request the refund be rushed.
+3. Contact Service Operations for assistance.
+**Additional Information**
+- You can only process a refund if it has been at least 5 business days since the payment and there have been no returns.
+- If the request is received during these 5 days, that time will be added to the wait for a refund. This time can be accelerated if you received a copy of the bank statement.
+- You can't issue a refund to a checking account if the credit on the policy is not equal to a full payment that was taken.
+- You also can't refund to a card or checking account not used on the policy.</t>
+  </si>
+  <si>
+    <t>Here's the formatted answer:
+**Reasons why an agent may not be able to process a payment through their ACA:**
+- Invalid agent code.
+- Agent code not on file.
+- ACA/Farmers Bank Account not set up.
+- Dual licensed.
+**Error message:**
+- "Agent Identification number not on file" when trying to submit a payment.</t>
+  </si>
+  <si>
+    <t>**Texas:**
+- The cancellation must be effective 30 days from the date it's received by the state's transportation division.</t>
+  </si>
+  <si>
+    <t>**Document the comment for adding EFT in these systems:**
+- BillingHub
+- SRM
+- Processing system
+**Include the following information in the comment:**
+- What was done
+- Why it was done
+- Reason
+- Action taken
+**Note:** If the system captures any part of the required comment, you don't need to manually add that information.</t>
+  </si>
+  <si>
+    <t>**Steps to access the EFT form in Direct Bill:**
+1. Ensure the autopay option is selected.
+2. Check Direct Bill for a pre-filled copy of the EFT form if there's a pending trigger to receive a paper copy of the EFT authorization form.
+3. If the authorization type chosen during autopay setup was an electronic signature (DocuSign), the paper form won't be available in Direct Bill.</t>
+  </si>
+  <si>
+    <t>To check the status of an Agent of Record (AOR) change:
+- Contact Hagerty at 1-800-747-5348.
+- Contact JC Taylor at 1-800-221-5888.</t>
+  </si>
+  <si>
+    <t>Sure, here's the reformatted answer:
+**How to check policy status:**
+1. From the search screen, look at the status column next to the insured's name.
+2. From the policy summary screen, the policy status is listed under the policy number.</t>
+  </si>
+  <si>
+    <t>**To cancel your insurance policy via email, please ensure the following information is clearly provided somewhere in the email:**
+- Insured's name
+- Policy number
+- Cancellation date
+- Signature (typed name)
+**Note:**
+- The email must come from the insured's email address on file.
+- Requests to cancel from an email address that is not the insured's email address on file will not be accepted.</t>
+  </si>
+  <si>
+    <t>Certainly! Here's the reformatted answer:
+The system can identify security codes from the Vehicle Identification Number (VIN).
+The system will automatically indicate the anti-theft discount.</t>
+  </si>
+  <si>
+    <t>To process a rush request for a letter of experience loss history letter:
+1. Send an email to imaging@foremost.com.
+2. In the subject line, include "Attn: Schedules" and the policy number.
+3. Alternatively, contact Service Operations.</t>
+  </si>
+  <si>
+    <t>**New Jersey Auto Policy Reinstatement:**
+- Auto policies canceled for non-payment cannot be reinstated.
+- Agents can resubmit eligible risks as a new policy transaction upon request.
+- Outstanding premiums and fees for the terminated policy must be paid before issuing a new policy.</t>
+  </si>
+  <si>
+    <t>**If the required proof has not been received to make a mileage change after the renewal effective date:**
+- Decline the request.
+- Refer it back to the agent/broker for additional information.
+**The following documents will be required for CA Mileage after renewal and are to be sent in by Agent/Broker in order to adjust Mileage/Rate for every vehicle included on the policy:**
+- Proof of garaging
+- Copy of the most recent smog certificate
+- DMV registration</t>
+  </si>
+  <si>
+    <t>**When you receive a "No Connect" error message when ordering an MVR on a NB policy:**
+- Verify that all information is correct.
+- If the information is correct, try to re-order the reports later.
+**You may also get notifications such as:**
+- "MVR Response Header Not Found": This means a MVR was never ordered.
+- "No-Hit": This means the system tried to run the MVR but couldn't retrieve it.
+**If you receive either of these notifications:**
+- Research the policy to find out why the MVR didn't order.
+- Contact Service Operations for assistance.</t>
+  </si>
+  <si>
+    <t>- You can list a married couple as male/female on a quote.
+- Once the policy is active, the gender can be corrected.</t>
+  </si>
+  <si>
+    <t>**HEA Membership Enrollment Promotion**
+- Active and retired Hawaii teachers and educators can receive a discount by becoming an HEA member.
+- Farmers Hawaii will enroll you as a new HEA member and cover the first-year membership fee.
+- After the first year, HEA will contact you for the annual membership fee of $20.</t>
+  </si>
+  <si>
+    <t>To process a trampoline in A360:
+1. Locate the trampoline question.
+2. Select the "Yes" radio button.</t>
+  </si>
+  <si>
+    <t>Sure, here's the reformatted answer:
+**To update your VIN, you'll need to provide the following documentation:**
+- Title
+- Vehicle registration
+- Vehicle window sticker or driver's side door sticker
+**If you're going back further than 5 days, you'll also need to provide documentation showing the correct VIN.**
+**You can also provide proof of ownership, such as:**
+- Proof of purchase
+- Bill of sale
+- Vehicle registration
+- Signed title
+- HLDI report</t>
+  </si>
+  <si>
+    <t>Sure, here's the reformatted answer:
+**To request a loss run:**
+1. Send an email to business.agentservice@farmersinsurance.com.
+2. Alternatively, you can fax your request to 855-866-6877.
+**Please note:**
+- Loss runs or loss experience information cannot be sent to third-party requestors due to privacy concerns.</t>
+  </si>
+  <si>
+    <t>**Proof of Residency Requirements:**
+- Must be in English.
+- If not in English, must be accompanied by a certified translation.
+- Only required for the named insured or their spouse.
+- Bank statements are not acceptable.
+**Acceptable Forms of Proof of Residency:**
+- Current driver's license or state ID card
+- Current utility bill
+- Current lease agreement
+- Current mortgage statement
+- Current property tax statement
+- Current homeowner's or renter's insurance policy
+- Current statement from a credit union or bank
+- Current statement from a telecommunications company</t>
+  </si>
+  <si>
+    <t>Sure, here's the reformatted answer:
+**Proof of Residency: Using a Lease Agreement**
+- A lease agreement can serve as a valid proof of residency.
+- Ensure that the lease agreement is up-to-date and includes your current address.
+- If necessary, provide additional supporting documents such as utility bills or bank statements to further verify your residency.</t>
+  </si>
+  <si>
+    <t>**H F08 Error Code: "Error opening wind/hail/hurricane table"**
+**Steps to Resolve:**
+1. Check if the wind/hail/hurricane table is present and accessible.
+2. Ensure that the table is in the correct format and contains the necessary data.
+3. Verify that the table is properly linked to the H F08 error code.
+4. If the issue persists, contact the manufacturer for further assistance.</t>
+  </si>
+  <si>
+    <t>I'm unable to format the answer as requested because the answer provided is "I don't have enough information to answer the query." There is no content to format.</t>
+  </si>
+  <si>
+    <t>**Retention Team Availability:**
+- Monday - Friday
+- 8:00 am - 7:00 pm ET</t>
+  </si>
+  <si>
+    <t>- If a statement has already been generated when the due date is changed, the original due date will still apply for the current month.
+- The new due date will apply on the next statement generated.</t>
+  </si>
+  <si>
+    <t>Sure, here's the formatted answer:
+- Customers will still receive a paper bill even if they're set up for EFT.
+- Customers can opt for paperless billing through MyForemostAccount.com.</t>
+  </si>
+  <si>
+    <t>Sure, here's the reformatted answer:
+**Can a roof have worn shingles?**
+Yes, a roof can have worn shingles.
+**Are dwellings with damaged shingles eligible for coverage?**
+Dwellings with damaged shingles may be eligible for coverage, depending on the severity of the damage.</t>
+  </si>
+  <si>
+    <t>- SR 22 requirements do require document tracking for trexo.</t>
+  </si>
+  <si>
+    <t>To avoid a service charge:
+- Enroll in Electronic Funds Transfer (EFT) to reduce the service charge.
+- Enroll in both EFT and paperless billing to eliminate the service charge.</t>
+  </si>
+  <si>
+    <t>Sure, here's the reformatted answer:
+**How to Get an Interpreter:**
+1. Call the interpreter service at 800-946-7990.
+2. Look up "Language Interpreter" in the phone book and call the listed number.
+3. Use the conference function to bring the caller on the line as a 3-way call.
+**Important Notes:**
+- Do not transfer the caller.
+- Advise any new party to the phone call that the call is being recorded.</t>
+  </si>
+  <si>
+    <t>If you think a special life event has hurt your credit score, you can ask us in writing to make exceptions to our underwriting and/or rating practices.</t>
+  </si>
+  <si>
+    <t>**Formatted Answer:**
+- The HRS code for the No Reconstruction Permit/Sticker is 431:10C-104.</t>
+  </si>
+  <si>
+    <t>**Verbal Cancellation Scripts**
+- Confirm that the chat conversation serves as the written request to cancel the policy.
+- Note any additional pertinent information as needed.
+- Add diary action "IBF" with "VR" as the result code.
+**Additional Information**
+- In Louisiana, verbal cancellations are no longer acceptable.
+- More information can be found at [1] and [2].</t>
+  </si>
+  <si>
+    <t>Sure, here's the reformatted answer:
+**How to Transfer Your Farmers Insurance Policy:**
+1. **To transfer your policy to the retention team:**
+   - Call 855-666-5805.
+2. **To transfer your policy to the agent360 team:**
+   - Call 800-422-4272.
+3. **To transfer your policy to an agent:**
+   - Cancel your current policy.
+   - Ask the agent to rewrite a new policy for you.</t>
+  </si>
+  <si>
+    <t>Sure, here's the reformatted answer:
+**Changing the Pay Plan for a Second Time**
+**Steps:**
+1. Submit a copy quote or rekey.
+2. Make a payment for the quoted down payment.
+3. Call Service Operations after the payment is applied.
+**Additional Information:**
+- You can also change the coverage and the pay plan at the same time.
+- Coverage for a specific loss is subject to claims investigation.</t>
+  </si>
+  <si>
+    <t>**Fax Number for Claims Department**
+- The fax number for the claims department is 855-822-3139.</t>
+  </si>
+  <si>
+    <t>- SR22s automatically expire after 3 years.
+- The expiration date is calculated from the filing date.</t>
+  </si>
+  <si>
+    <t>**Formatted Answer:**
+- If you have two married people of the same gender on a quote, you can list them as Male/Female on the quote.
+- Once the policy is active, you can correct the gender.</t>
+  </si>
+  <si>
+    <t>**Endorsement Processing:**
+- Endorsements take one overnight cycle to process.
+- If the endorsement is still pending the next day, there might be an error.
+- The endorsement will show as pending until the effective date of the change.</t>
+  </si>
+  <si>
+    <t>Sure, here's the formatted answer:
+**How to reinstate a policy written in Mexico:**
+- If a payment is received within 7 calendar days of the cancellation date, the policy will automatically be reinstated.
+- After 7 days, a rewrite (reinstatement with a lapse) will need to be processed.</t>
+  </si>
+  <si>
+    <t>**Formatted Answer:**
+- CSG stands for Customer Solutions Group.</t>
+  </si>
+  <si>
+    <t>**Key Points:**
+- Chargeable violations are indicated by a "Y" in the chargeable box.
+- Chargeable violations are being charged.
+- When a violation is no longer chargeable, it displays with an "EX" to indicate that it is Expired in the system.</t>
+  </si>
+  <si>
+    <t>There are no specific requirements for adding EFT in a comment. You can include information such as:
+- Why the document was rejected
+- What actions are required to make the document acceptable
+- The date
+- The employee's name
+- The policy number</t>
+  </si>
+  <si>
+    <t>**MCO 19 Policies**
+- Use Bristol West/Foremost EFT authorization forms.</t>
+  </si>
+  <si>
+    <t>Sure, here's the reformatted answer:
+**Proof of Residency in Spanish**
+- Proof of residency in Spanish is acceptable.
+- These specifications are only used to verify the residence or garage address, not homeownership.
+**Finding a Spanish-Speaking Agent**
+1. Go to https://agents.farmers.com/.
+2. Enter the customer's ZIP code and click "Search."
+3. In the "More Search Options" box, click the "Filter by Language" drop-down and select "Spanish."
+4. Click the "Refine" button.</t>
+  </si>
+  <si>
+    <t>**To view alerts on BWP:**
+1. Log onto BWP.
+2. Go to the Manage My Customers tab.
+3. Select Policy Alerts.
+4. Choose an option to view.</t>
+  </si>
+  <si>
+    <t>- It's unclear if a policy written in Mexico can be reinstated.</t>
+  </si>
+  <si>
+    <t>- Extensions are calculated from the due date, not the date the extension was requested.</t>
+  </si>
+  <si>
+    <t>**Account Underwriting (AU) handles COVERAGE34D.**
+**If an agent requests to non-renew a policy where an underwriting violation has not been identified:**
+- They can request cancellation of the policy.
+- They can set it up to not renew.
+**If a request made to Account Underwriting is declined and the agent escalates, they should contact Service Operations for assistance.**</t>
+  </si>
+  <si>
+    <t>**Mock Affidavits**
+- Used for policyholders who weren't insured when cited for a "No No-Fault Insurance" violation.
+- Presented in court to confirm the policyholder now has insurance.
+- Serves as proof of current insurance coverage.</t>
+  </si>
+  <si>
+    <t>**New York Reinstatement Fees:**
+- No fee to renew with a lapse.
+- $25 fee to renew with a lapse in coverage.</t>
+  </si>
+  <si>
+    <t>**When receiving a "No Connect" error message when ordering an MVR on a New Business policy:**
+1. Verify all information is correct.
+2. If the information is correct, attempt to re-order reports at a later time.</t>
+  </si>
+  <si>
+    <t>**To work the PIRC report:**
+1. Review the policy (all mods) in Receivables.
+2. Sign-on using AS400 credentials.
+3. Select Receivables, Direct Bill, Policy Inquiry List.
+4. Enter Policy Number.
+5. Select 6 next to the policy to view Policy Status.
+**If EFT is Active:**
+- It will show **EFT ON** in the top right corner.
+- You will need to terminate EFT.
+**To terminate EFT in AS400:**
+1. Input 1 in Policy Holder Preference.
+2. Confirm EFT Terminate Reason is “DNW” Did Not Want EFT.
+3. Select Reason Code as DNW.
+4. Review policy again in Receivables to confirm **EFT ON** indicator is gone.
+**If **EFT ON** in receivables but EFT shows terminated:**
+- A Defect (QC) will need to be opened.</t>
+  </si>
+  <si>
+    <t>There are no verbal cancellation scripts.</t>
+  </si>
+  <si>
+    <t>**To reach Farmers Special Investigations Unit (SIU):**
+- Call 888-662-6616
+- Email siu.resource.center@farmersinsurance.com</t>
+  </si>
+  <si>
+    <t>**To use MoneyGram, follow these steps:**
+1. Complete the blue MoneyGram form or call MoneyGram to speak with a representative.
+2. Pay the cashier or counter and receive a confirmation pin.
+3. Wait for 48-72 hours for PA to process the payment, as it must be manually applied to the account.</t>
+  </si>
+  <si>
+    <t>**Financial Responsibility Office - Kahului**
+- Location: Maui Mall Shopping Center
+- Address: 70 East Kaahumanu Ave, Ste A-17
+- City: Kahului
+- State: HI
+- Zip Code: 96732</t>
+  </si>
+  <si>
+    <t>- The maximum total insurable earthquake value per risk is $500,000.
+- No exceptions can be made for more than $500,000.</t>
+  </si>
+  <si>
+    <t>- The Hyper Care window for the EPC system is from February 3rd to February 17th.</t>
+  </si>
+  <si>
+    <t>There is no information about the loss run requirement for the state of North Dakota in the search results.</t>
+  </si>
+  <si>
+    <t>Sure, here's the reformatted answer:
+**Formatted Answer:**
+1. Remove all citations, including [1], [1, 3], etc.
+2. Break down the information into manageable steps or points.
+3. Ensure the answer is clear, concise, and easy to read.</t>
+  </si>
+  <si>
+    <t>**In Washington state:**
+- Verbal or written cancellation requests from the legal representative of the estate are acceptable.</t>
+  </si>
+  <si>
+    <t>**Service Assist Program:**
+- Assists with billing inquiries, digital enrollment, policy updates, and agency dashboard alerts.
+- Licensed representative team members may help with inbound customer requests when a participating agent is unavailable.
+- Can quote or bind additional coverage on existing policies.
+- Attempts to retain customers when a cancellation request is received.</t>
+  </si>
+  <si>
+    <t>To process a trampoline in Agent 360:
+- Select the "Yes" radio button for the trampoline question.
+- For service, access the Company Use page in ARS under the Residence Questions section.
+- For sales, select the "Yes" radio button under Property Information.
+- Submit an endorsement.</t>
+  </si>
+  <si>
+    <t>**If the lender doesn't have a loan number:**
+- Submit a copy of the borrower's authorization form.
+**Note:** Title companies, dealerships, contract sellers, and title holders cannot make any changes.</t>
+  </si>
+  <si>
+    <t>**When a driver is excluded on a policy:**
+- Coverage for bodily injury, loss, or damages afforded by the policy will not apply while the excluded driver is operating any vehicle.
+- Excluded drivers are not rated on the policy.
+**To exclude a driver from a policy:**
+- A signed Driver Exclusion form must be sent in.
+- The driver may be excluded at any time on the policy if the form is received the same day.
+**To rate a driver on a policy:**
+- The driver may be rated at any time on the policy as long as they are acceptable.</t>
+  </si>
+  <si>
+    <t>**Here's the reformatted answer:**
+**When can you not retain a policy?**
+- If it's being canceled or non-renewed
+- If there are outstanding underwriting or claims issues
+- If it needs to be reinstated
+**When can you retain a policy?**
+- If there hasn't been a loss
+**What happens if a claim requires follow-up work?**
+- A representative will assist you throughout the process.
+**What happens if additional damage or injuries are found after a claim has been concluded?**
+- The claim will be reopened to determine coverage for the additional expenses.
+**Can you requote a canceled policy?**
+- Yes, after a one-year period.</t>
+  </si>
+  <si>
+    <t>**How to find the ERM-14 form:**
+1. Go to the NCCI website.
+2. Click on the link provided.
+3. The ERM-14 form will be available for download.
+**Note:** The ERM-14 form is used by all states except California.</t>
+  </si>
+  <si>
+    <t>**Cancellation Scripts**
+- Farmers Auto, Home, and Umbrella cancellation scripts can be found on the Farmers website.
+- Go to the Farmers website and search for "cancellation scripts."
+- Click on the link for the type of policy you want to cancel.
+- Follow the instructions on the script to cancel your policy.</t>
+  </si>
+  <si>
+    <t>**Scheduled Rental Mobile Homes**
+- Can be written in all states except Hawaii and Washington DC.
+- No limitation on the number of units on a policy, as long as they're in the same state and territory.
+- Minimum number of units for a policy is five.</t>
+  </si>
+  <si>
+    <t>**Homeowners Policies:**
+- Not eligible for a residence address change.
+- Must be re-written.
+**Renters Policies:**
+- Can be updated after the discovery period.
+**Moving Out of State:**
+- Policy will need to be re-written.</t>
+  </si>
+  <si>
+    <t>Sure, here's the reformatted answer:
+**Yes, you can write rental properties in DF6.**
+This policy covers:
+- Rental properties
+- Vacation and short-term rentals
+- Vacant/unoccupied properties</t>
+  </si>
+  <si>
+    <t>**Upload split occurs when:**
+- A single sweep payment is made at the end of a term.
+- The payment exceeds the amount needed to satisfy the policy.
+- The remaining balance carries forward to the renewal.</t>
+  </si>
+  <si>
+    <t>- If the customer mentions an existing quote, update the information in that quote.
+- If there was a canceled policy, start a new quote by following the procedures for Re-quoting Canceled policies.</t>
+  </si>
+  <si>
+    <t>If you receive a "No Connect" error message when ordering an MVR on a New Business policy:
+1. Verify that all of the information is correct.
+2. If the information is correct, try to re-order the reports at a later time.</t>
+  </si>
+  <si>
+    <t>Sure, here's the reformatted answer:
+- A roof can have clawing shingles.
+- However, clawing shingles are considered unacceptable characteristics.</t>
+  </si>
+  <si>
+    <t>The GL code for Furniture and Fixture Installation is 95124.</t>
   </si>
   <si>
     <t>There is not enough information to answer the question.</t>
   </si>
   <si>
-    <t>For North Carolina, Foremost currently writes Specialty Dwelling policies in the Dwelling Fire program (DF1, DF3) for the following use types: Rental, Vacant, Vacation &amp; Short Term Rental, and Condo (DF6)-Landlord only [2].</t>
-  </si>
-  <si>
-    <t>FACT stands for Farmers Action for Communities of Tomorrow [2, 3]. It is a Farmers-branded policy written by independent agents [2]. The FIA and FACT programs are no longer accepting any new business [2].</t>
-  </si>
-  <si>
-    <t>The account number for UHPA is 14202 [2].</t>
-  </si>
-  <si>
-    <t>If the MVR disposition is blank, you should review the Docket and list violations accordingly [1]. If the violation is chargeable, you should use the disposition date as the conviction date [1]. If the disposition is unresolved, you should document the pending violations in the comments [1].</t>
-  </si>
-  <si>
-    <t>To view alerts on Bristol West Producers, agents can log onto BWP and go to the Manage My Customers tab [1]. Then, they can select Policy Alerts to choose an option to view [1].</t>
-  </si>
-  <si>
-    <t>You can use the Transaction Breakdown screen to see if a service charge is being applied [2].</t>
-  </si>
-  <si>
-    <t>If a current insured notifies you of a change in marital status due to a divorce or separation, you need to verify the following information: Vehicle Registration, Group Member Name (if applicable), and Address [1]. You should then complete the necessary policy changes [1].</t>
-  </si>
-  <si>
-    <t>The merit rating adjustment for 5 lost-time claims is a 5% debit [5]. The merit rating adjustment is based on the number of lost-time claims paid or for which payment has been initiated [3, 4]. For example, in Delaware, there is a 5% discount for no compensable employee lost-time injuries [1].</t>
-  </si>
-  <si>
-    <t>When placing an extension, the auto long states are CT and SD [1]. The fire long states are ID, MN, MT, PA, and SD [1]. The umbrella long states are AL, CO, ID, IN, KS, MN, MO, NJ, OH, OR, PA, SD, TN, and VA [1]. When placing an extension, the next scheduled diary date is 9 to 11 days after the due date depending on the number of days in the month [1].</t>
-  </si>
-  <si>
-    <t>There is no information about the policy numbers for mobile homes [1]. However, you can call 800-527-3905 for assistance [3]. You can also add your mobile home to a scheduled Commercial Mobile Home policy [4]. There is a special endorsement (5540) available for vacant land that contains other structures with limitations [5].</t>
-  </si>
-  <si>
-    <t>The mid-term cancellation fee in California is $50 for insured-requested cancellations [1]. There is no cancellation fee for flat cancellations because there is no coverage provided on a policy that has been flat canceled [1]. Refunds are based on the precise number of days of coverage [3]. Due to a varying number of days in different months, the amount paid can be slightly off from the amount of coverage received if the policy is canceling mid-term [3].</t>
-  </si>
-  <si>
-    <t>The class name for Artisan Contractor GL Code 91341 is Carpentry-Interior [1].</t>
-  </si>
-  <si>
-    <t>To confirm the exact reason a policy was canceled, you can review the policy information and documents [1]. Here are a few things to check: Was there a missed payment? [1]</t>
-  </si>
-  <si>
-    <t>To obtain a new producer code, contact the District Manager [1, 5].</t>
-  </si>
-  <si>
-    <t>The MCO for New York is 41 [2]. To confirm coverage, the registered owner must be listed as the primary named insured or additional named insured in MCO 41/42 [4]. In MCO 46, the Primary Registered Owner field on the vehicle screen must match the MVF request [4].</t>
-  </si>
-  <si>
-    <t>There are several instances when a cancel fee can be reversed: when the policy is written into Farmers, Bristol West, or Foremost, when the policy is renewed, or when the policy is flat cancelled [1]. If the policy is cancelled on the renewal date, a cancel fee should not apply [3]. If the policy is cancelled due to a total loss, the cancel fee is not charged [4].</t>
-  </si>
-  <si>
-    <t>The policy fees for SR22 in Florida are $15.00 for each SR-22 filing on the policy [1, 2].</t>
-  </si>
-  <si>
-    <t>California uses WCIRB Connect to electronically report changes in ownership [1, 2, 3].</t>
-  </si>
-  <si>
-    <t>UPSPOT is a marketing/customer management programming system for each insured in your book of business [2].</t>
+    <t>**North Carolina Specialty Dwelling Policies**
+Foremost currently writes Specialty Dwelling policies in the Dwelling Fire program (DF1, DF3) for the following use types in North Carolina:
+- Rental
+- Vacant
+- Vacation &amp; Short Term Rental
+- Condo (DF6)-Landlord only</t>
+  </si>
+  <si>
+    <t>Sure, here's the formatted answer:
+**FACT (Farmers Action for Communities of Tomorrow)**
+- FACT is a Farmers-branded policy written by independent agents.
+- The FIA and FACT programs are no longer accepting new business.</t>
+  </si>
+  <si>
+    <t>- The account number for UHPA is 14202.</t>
+  </si>
+  <si>
+    <t>**Steps to format the answer:**
+1. Remove all citations like [1], [1, 3].
+2. Break down the answer into manageable steps or points.
+3. Ensure the answer is clear and easy to read.
+**Formatted Answer:**
+- If the MVR disposition is blank, review the Docket and list violations accordingly.
+- If the violation is chargeable, use the disposition date as the conviction date.
+- If the disposition is unresolved, document the pending violations in the comments.</t>
+  </si>
+  <si>
+    <t>To view alerts on Bristol West Producers:
+1. Log onto BWP.
+2. Go to the Manage My Customers tab.
+3. Select Policy Alerts.
+4. Choose an option to view.</t>
+  </si>
+  <si>
+    <t>- You can use the Transaction Breakdown screen to see if a service charge is being applied.</t>
+  </si>
+  <si>
+    <t>Sure, here's the reformatted answer:
+**Steps to take when an insured notifies you of a change in marital status due to divorce or separation:**
+1. **Verify the following information:**
+    * Vehicle Registration
+    * Group Member Name (if applicable)
+    * Address
+2. **Complete the necessary policy changes.**</t>
+  </si>
+  <si>
+    <t>**Merit Rating Adjustment:**
+- A 5% debit is applied for every 5 lost-time claims.
+- The adjustment is based on the number of lost-time claims paid or in progress.
+**Example:**
+- In Delaware, a 5% discount is given for having no compensable employee lost-time injuries.</t>
+  </si>
+  <si>
+    <t>**Extension Placement Guidelines:**
+- **Auto Long States:** CT, SD
+- **Fire Long States:** ID, MN, MT, PA, SD
+- **Umbrella Long States:** AL, CO, ID, IN, KS, MN, MO, NJ, OH, OR, PA, SD, TN, VA
+**Next Scheduled Diary Date:**
+- 9 to 11 days after the due date, depending on the number of days in the month</t>
+  </si>
+  <si>
+    <t>Sure, here's the reformatted answer:
+**Mobile Home Policy Information:**
+- There's no information about policy numbers for mobile homes.
+- For assistance, call 800-527-3905.
+- You can add your mobile home to a scheduled Commercial Mobile Home policy.
+- There's a special endorsement (5540) available for vacant land with other structures, but it has limitations.</t>
+  </si>
+  <si>
+    <t>**California Mid-Term Cancellation Fees:**
+- Insured-requested cancellations: $50 fee
+- Flat cancellations: No fee (no coverage provided)
+**Refunds:**
+- Based on the exact number of coverage days
+- May vary slightly due to different month lengths</t>
+  </si>
+  <si>
+    <t>The class name for Artisan Contractor GL Code 91341 is Carpentry-Interior.</t>
+  </si>
+  <si>
+    <t>To confirm the exact reason a policy was canceled, you can review the policy information and documents. Here are a few things to check:
+- Was there a missed payment?</t>
+  </si>
+  <si>
+    <t>**Steps to obtain a new producer code:**
+1. Contact the District Manager.</t>
+  </si>
+  <si>
+    <t>**New York MCO Requirements:**
+- The MCO for New York is 41.
+- To confirm coverage, the registered owner must be listed as:
+  - The primary named insured.
+  - An additional named insured in MCO 41/42.
+- In MCO 46, the Primary Registered Owner field on the vehicle screen must match the MVF request.</t>
+  </si>
+  <si>
+    <t>Sure, here's the reformatted answer:
+**When can a cancel fee be reversed?**
+- When the policy is written into Farmers, Bristol West, or Foremost.
+- When the policy is renewed.
+- When the policy is flat canceled.
+**Additional information:**
+- If the policy is canceled on the renewal date, a cancel fee should not apply.
+- If the policy is canceled due to a total loss, the cancel fee is not charged.</t>
+  </si>
+  <si>
+    <t>**SR22 Policy Fees in Florida**
+- The policy fee for an SR-22 filing in Florida is $15.00.
+- This fee applies to each SR-22 filing on the policy.</t>
+  </si>
+  <si>
+    <t>**How to Electronically Report Changes in Ownership in California**
+1. Use WCIRB Connect to report changes in ownership.
+2. Ensure that all required information is included in the report.
+3. Submit the report electronically through WCIRB Connect.</t>
+  </si>
+  <si>
+    <t>**UPSPOT** is a marketing and customer management programming system designed for each insured in your book of business.
+**Key Points:**
+- Manages marketing and customer relationships.
+- Designed for insurance professionals.
+- Provides personalized service to each insured.</t>
   </si>
 </sst>
 </file>
@@ -12012,7 +13082,7 @@
         <v>946</v>
       </c>
       <c r="G231" s="1" t="s">
-        <v>1179</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="232" spans="1:7">
@@ -12035,7 +13105,7 @@
         <v>946</v>
       </c>
       <c r="G232" s="1" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="233" spans="1:7">
@@ -12055,7 +13125,7 @@
         <v>946</v>
       </c>
       <c r="G233" s="1" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="234" spans="1:7">
@@ -12075,7 +13145,7 @@
         <v>950</v>
       </c>
       <c r="G234" s="1" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="235" spans="1:7">
@@ -12098,7 +13168,7 @@
         <v>946</v>
       </c>
       <c r="G235" s="1" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="236" spans="1:7">
@@ -12118,7 +13188,7 @@
         <v>950</v>
       </c>
       <c r="G236" s="1" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="237" spans="1:7">
@@ -12161,7 +13231,7 @@
         <v>947</v>
       </c>
       <c r="G238" s="1" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="239" spans="1:7">
@@ -12184,7 +13254,7 @@
         <v>945</v>
       </c>
       <c r="G239" s="1" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="240" spans="1:7">
@@ -12204,7 +13274,7 @@
         <v>945</v>
       </c>
       <c r="G240" s="1" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="241" spans="1:7">
@@ -12227,7 +13297,7 @@
         <v>946</v>
       </c>
       <c r="G241" s="1" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="242" spans="1:7">
@@ -12250,7 +13320,7 @@
         <v>948</v>
       </c>
       <c r="G242" s="1" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="243" spans="1:7">
@@ -12293,7 +13363,7 @@
         <v>946</v>
       </c>
       <c r="G244" s="1" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="245" spans="1:7">
@@ -12316,7 +13386,7 @@
         <v>947</v>
       </c>
       <c r="G245" s="1" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="246" spans="1:7">
@@ -12339,7 +13409,7 @@
         <v>947</v>
       </c>
       <c r="G246" s="1" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="247" spans="1:7">
@@ -12359,7 +13429,7 @@
         <v>949</v>
       </c>
       <c r="G247" s="1" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="248" spans="1:7">
@@ -12382,7 +13452,7 @@
         <v>946</v>
       </c>
       <c r="G248" s="1" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="249" spans="1:7">
@@ -12405,7 +13475,7 @@
         <v>949</v>
       </c>
       <c r="G249" s="1" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="250" spans="1:7">
@@ -12425,7 +13495,7 @@
         <v>953</v>
       </c>
       <c r="G250" s="1" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="251" spans="1:7">
@@ -12445,7 +13515,7 @@
         <v>949</v>
       </c>
       <c r="G251" s="1" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="252" spans="1:7">
@@ -12468,7 +13538,7 @@
         <v>945</v>
       </c>
       <c r="G252" s="1" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="253" spans="1:7">
@@ -12491,7 +13561,7 @@
         <v>948</v>
       </c>
       <c r="G253" s="1" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="254" spans="1:7">
@@ -12514,7 +13584,7 @@
         <v>944</v>
       </c>
       <c r="G254" s="1" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="255" spans="1:7">
@@ -12537,7 +13607,7 @@
         <v>946</v>
       </c>
       <c r="G255" s="1" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="256" spans="1:7">
@@ -12560,7 +13630,7 @@
         <v>947</v>
       </c>
       <c r="G256" s="1" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="257" spans="1:7">
@@ -12580,7 +13650,7 @@
         <v>949</v>
       </c>
       <c r="G257" s="1" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="258" spans="1:7">
@@ -12603,7 +13673,7 @@
         <v>950</v>
       </c>
       <c r="G258" s="1" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="259" spans="1:7">
@@ -12646,7 +13716,7 @@
         <v>944</v>
       </c>
       <c r="G260" s="1" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="261" spans="1:7">
@@ -12689,7 +13759,7 @@
         <v>950</v>
       </c>
       <c r="G262" s="1" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="263" spans="1:7">
@@ -12709,7 +13779,7 @@
         <v>944</v>
       </c>
       <c r="G263" s="1" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="264" spans="1:7">
@@ -12732,7 +13802,7 @@
         <v>946</v>
       </c>
       <c r="G264" s="1" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="265" spans="1:7">
@@ -12755,7 +13825,7 @@
         <v>947</v>
       </c>
       <c r="G265" s="1" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="266" spans="1:7">
@@ -12775,7 +13845,7 @@
         <v>945</v>
       </c>
       <c r="G266" s="1" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="267" spans="1:7">
@@ -12818,7 +13888,7 @@
         <v>950</v>
       </c>
       <c r="G268" s="1" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="269" spans="1:7">
@@ -12838,7 +13908,7 @@
         <v>949</v>
       </c>
       <c r="G269" s="1" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="270" spans="1:7">
@@ -12884,7 +13954,7 @@
         <v>947</v>
       </c>
       <c r="G271" s="1" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="272" spans="1:7">
@@ -12904,7 +13974,7 @@
         <v>944</v>
       </c>
       <c r="G272" s="1" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="273" spans="1:7">
@@ -12924,7 +13994,7 @@
         <v>950</v>
       </c>
       <c r="G273" s="1" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="274" spans="1:7">
@@ -12967,7 +14037,7 @@
         <v>947</v>
       </c>
       <c r="G275" s="1" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="276" spans="1:7">
@@ -12990,7 +14060,7 @@
         <v>947</v>
       </c>
       <c r="G276" s="1" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="277" spans="1:7">
@@ -13010,7 +14080,7 @@
         <v>946</v>
       </c>
       <c r="G277" s="1" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="278" spans="1:7">
@@ -13033,7 +14103,7 @@
         <v>949</v>
       </c>
       <c r="G278" s="1" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="279" spans="1:7">
@@ -13056,7 +14126,7 @@
         <v>947</v>
       </c>
       <c r="G279" s="1" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="280" spans="1:7">
@@ -13076,7 +14146,7 @@
         <v>949</v>
       </c>
       <c r="G280" s="1" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="281" spans="1:7">
@@ -13096,7 +14166,7 @@
         <v>946</v>
       </c>
       <c r="G281" s="1" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="282" spans="1:7">
@@ -13119,7 +14189,7 @@
         <v>944</v>
       </c>
       <c r="G282" s="1" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="283" spans="1:7">
@@ -13139,7 +14209,7 @@
         <v>945</v>
       </c>
       <c r="G283" s="1" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="284" spans="1:7">
@@ -13179,7 +14249,7 @@
         <v>949</v>
       </c>
       <c r="G285" s="1" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="286" spans="1:7">
@@ -13202,7 +14272,7 @@
         <v>945</v>
       </c>
       <c r="G286" s="1" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="287" spans="1:7">
@@ -13225,7 +14295,7 @@
         <v>946</v>
       </c>
       <c r="G287" s="1" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="288" spans="1:7">
@@ -13248,7 +14318,7 @@
         <v>945</v>
       </c>
       <c r="G288" s="1" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="289" spans="1:7">
@@ -13271,7 +14341,7 @@
         <v>945</v>
       </c>
       <c r="G289" s="1" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="290" spans="1:7">
@@ -13294,7 +14364,7 @@
         <v>945</v>
       </c>
       <c r="G290" s="1" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="291" spans="1:7">
@@ -13314,7 +14384,7 @@
         <v>949</v>
       </c>
       <c r="G291" s="1" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="292" spans="1:7">
@@ -13337,7 +14407,7 @@
         <v>946</v>
       </c>
       <c r="G292" s="1" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
     </row>
   </sheetData>
